--- a/dist/Regiones_Flourish.xlsx
+++ b/dist/Regiones_Flourish.xlsx
@@ -31681,113 +31681,113 @@
     </row>
     <row r="586" spans="1:17">
       <c r="A586" s="1">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="B586">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="C586" t="s">
         <v>16</v>
       </c>
       <c r="D586" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E586" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F586" t="s">
         <v>90</v>
       </c>
       <c r="G586">
-        <v>3.08261182905269</v>
+        <v>2.872199037467958</v>
       </c>
       <c r="H586">
-        <v>128285308.1604958</v>
+        <v>137309429.855505</v>
       </c>
       <c r="I586">
-        <v>12.54254844328326</v>
+        <v>12.00394217088926</v>
       </c>
       <c r="J586">
-        <v>1059.6243171034</v>
+        <v>1236.908576301448</v>
       </c>
       <c r="K586" t="s">
         <v>98</v>
       </c>
       <c r="L586">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="M586">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="N586">
         <v>585</v>
       </c>
       <c r="O586">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P586">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q586">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="587" spans="1:17">
       <c r="A587" s="1">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="B587">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="C587" t="s">
         <v>16</v>
       </c>
       <c r="D587" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E587" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F587" t="s">
         <v>90</v>
       </c>
       <c r="G587">
-        <v>2.872199037467958</v>
+        <v>3.463830705519265</v>
       </c>
       <c r="H587">
-        <v>137309429.855505</v>
+        <v>136788433.3313289</v>
       </c>
       <c r="I587">
-        <v>12.00394217088926</v>
+        <v>11.74957728287245</v>
       </c>
       <c r="J587">
-        <v>1236.908576301448</v>
+        <v>1296.363312731761</v>
       </c>
       <c r="K587" t="s">
         <v>98</v>
       </c>
       <c r="L587">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="M587">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="N587">
         <v>586</v>
       </c>
       <c r="O587">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P587">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q587">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:17">
       <c r="A588" s="1">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="B588">
         <v>1999</v>
@@ -31796,157 +31796,157 @@
         <v>16</v>
       </c>
       <c r="D588" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E588" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F588" t="s">
         <v>90</v>
       </c>
       <c r="G588">
-        <v>3.463830705519265</v>
+        <v>3.553554401431217</v>
       </c>
       <c r="H588">
-        <v>136788433.3313289</v>
+        <v>149720209.231084</v>
       </c>
       <c r="I588">
-        <v>11.74957728287245</v>
+        <v>10.62069240340024</v>
       </c>
       <c r="J588">
-        <v>1296.363312731761</v>
+        <v>1302.927965833265</v>
       </c>
       <c r="K588" t="s">
         <v>98</v>
       </c>
       <c r="L588">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="M588">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="N588">
         <v>587</v>
       </c>
       <c r="O588">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P588">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q588">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:17">
       <c r="A589" s="1">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="B589">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C589" t="s">
         <v>16</v>
       </c>
       <c r="D589" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E589" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F589" t="s">
         <v>90</v>
       </c>
       <c r="G589">
-        <v>3.553554401431217</v>
+        <v>2.997898268583322</v>
       </c>
       <c r="H589">
-        <v>149720209.231084</v>
+        <v>144499380.6313836</v>
       </c>
       <c r="I589">
-        <v>10.62069240340024</v>
+        <v>12.83146996128246</v>
       </c>
       <c r="J589">
-        <v>1302.927965833265</v>
+        <v>1351.914731553749</v>
       </c>
       <c r="K589" t="s">
         <v>98</v>
       </c>
       <c r="L589">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="M589">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="N589">
         <v>588</v>
       </c>
       <c r="O589">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P589">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q589">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="590" spans="1:17">
       <c r="A590" s="1">
-        <v>111</v>
+        <v>185</v>
       </c>
       <c r="B590">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="C590" t="s">
         <v>16</v>
       </c>
       <c r="D590" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E590" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F590" t="s">
         <v>90</v>
       </c>
       <c r="G590">
-        <v>2.997898268583322</v>
+        <v>3.529412696284791</v>
       </c>
       <c r="H590">
-        <v>144499380.6313836</v>
+        <v>147763109.885169</v>
       </c>
       <c r="I590">
-        <v>12.83146996128246</v>
+        <v>12.12</v>
       </c>
       <c r="J590">
-        <v>1351.914731553749</v>
+        <v>1420.481273646244</v>
       </c>
       <c r="K590" t="s">
         <v>98</v>
       </c>
       <c r="L590">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="M590">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="N590">
         <v>589</v>
       </c>
       <c r="O590">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P590">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q590">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:17">
       <c r="A591" s="1">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="B591">
         <v>2000</v>
@@ -31955,107 +31955,107 @@
         <v>16</v>
       </c>
       <c r="D591" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E591" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F591" t="s">
         <v>90</v>
       </c>
       <c r="G591">
-        <v>3.529412696284791</v>
+        <v>3.698629292408834</v>
       </c>
       <c r="H591">
-        <v>147763109.885169</v>
+        <v>162396709.1176951</v>
       </c>
       <c r="I591">
-        <v>12.12</v>
+        <v>10.96</v>
       </c>
       <c r="J591">
-        <v>1420.481273646244</v>
+        <v>1442.182209734248</v>
       </c>
       <c r="K591" t="s">
         <v>98</v>
       </c>
       <c r="L591">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="M591">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="N591">
         <v>590</v>
       </c>
       <c r="O591">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P591">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q591">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:17">
       <c r="A592" s="1">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="B592">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C592" t="s">
         <v>16</v>
       </c>
       <c r="D592" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E592" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F592" t="s">
         <v>90</v>
       </c>
       <c r="G592">
-        <v>3.698629292408834</v>
+        <v>3.006399619281768</v>
       </c>
       <c r="H592">
-        <v>162396709.1176951</v>
+        <v>158298350.6547795</v>
       </c>
       <c r="I592">
-        <v>10.96</v>
+        <v>12.78046152585622</v>
       </c>
       <c r="J592">
-        <v>1442.182209734248</v>
+        <v>1479.874948626485</v>
       </c>
       <c r="K592" t="s">
         <v>98</v>
       </c>
       <c r="L592">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="M592">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="N592">
         <v>591</v>
       </c>
       <c r="O592">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P592">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q592">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="593" spans="1:17">
       <c r="A593" s="1">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="B593">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="C593" t="s">
         <v>16</v>
@@ -32070,25 +32070,25 @@
         <v>90</v>
       </c>
       <c r="G593">
-        <v>3.006399619281768</v>
+        <v>3.075484926638344</v>
       </c>
       <c r="H593">
-        <v>158298350.6547795</v>
+        <v>171360939.7972732</v>
       </c>
       <c r="I593">
-        <v>12.78046152585622</v>
+        <v>11.33</v>
       </c>
       <c r="J593">
-        <v>1479.874948626485</v>
+        <v>1633.470461112752</v>
       </c>
       <c r="K593" t="s">
         <v>98</v>
       </c>
       <c r="L593">
+        <v>583</v>
+      </c>
+      <c r="M593">
         <v>590</v>
-      </c>
-      <c r="M593">
-        <v>587</v>
       </c>
       <c r="N593">
         <v>592</v>
@@ -32105,63 +32105,63 @@
     </row>
     <row r="594" spans="1:17">
       <c r="A594" s="1">
-        <v>177</v>
+        <v>271</v>
       </c>
       <c r="B594">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="C594" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D594" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E594" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F594" t="s">
         <v>90</v>
       </c>
       <c r="G594">
-        <v>3.075484926638344</v>
+        <v>2.800124219110258</v>
       </c>
       <c r="H594">
-        <v>171360939.7972732</v>
+        <v>260869767.3073402</v>
       </c>
       <c r="I594">
-        <v>11.33</v>
+        <v>13.52</v>
       </c>
       <c r="J594">
-        <v>1633.470461112752</v>
+        <v>1661.178613694678</v>
       </c>
       <c r="K594" t="s">
         <v>98</v>
       </c>
       <c r="L594">
+        <v>596</v>
+      </c>
+      <c r="M594">
         <v>583</v>
-      </c>
-      <c r="M594">
-        <v>590</v>
       </c>
       <c r="N594">
         <v>593</v>
       </c>
       <c r="O594">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P594">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q594">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:17">
       <c r="A595" s="1">
-        <v>271</v>
+        <v>205</v>
       </c>
       <c r="B595">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="C595" t="s">
         <v>17</v>
@@ -32176,25 +32176,25 @@
         <v>90</v>
       </c>
       <c r="G595">
-        <v>2.800124219110258</v>
+        <v>4.244738923660966</v>
       </c>
       <c r="H595">
-        <v>260869767.3073402</v>
+        <v>166087168.1401453</v>
       </c>
       <c r="I595">
-        <v>13.52</v>
+        <v>12.92</v>
       </c>
       <c r="J595">
-        <v>1661.178613694678</v>
+        <v>1662.792032436632</v>
       </c>
       <c r="K595" t="s">
         <v>98</v>
       </c>
       <c r="L595">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="M595">
-        <v>583</v>
+        <v>612</v>
       </c>
       <c r="N595">
         <v>594</v>
@@ -32211,7 +32211,7 @@
     </row>
     <row r="596" spans="1:17">
       <c r="A596" s="1">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="B596">
         <v>2001</v>
@@ -32220,54 +32220,54 @@
         <v>17</v>
       </c>
       <c r="D596" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E596" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F596" t="s">
         <v>90</v>
       </c>
       <c r="G596">
-        <v>4.244738923660966</v>
+        <v>4.217976999785748</v>
       </c>
       <c r="H596">
-        <v>166087168.1401453</v>
+        <v>155792542.0805141</v>
       </c>
       <c r="I596">
-        <v>12.92</v>
+        <v>14.36</v>
       </c>
       <c r="J596">
-        <v>1662.792032436632</v>
+        <v>1786.724581435786</v>
       </c>
       <c r="K596" t="s">
         <v>98</v>
       </c>
       <c r="L596">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="M596">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="N596">
         <v>595</v>
       </c>
       <c r="O596">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P596">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q596">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:17">
       <c r="A597" s="1">
-        <v>218</v>
+        <v>284</v>
       </c>
       <c r="B597">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="C597" t="s">
         <v>17</v>
@@ -32282,25 +32282,25 @@
         <v>90</v>
       </c>
       <c r="G597">
-        <v>4.217976999785748</v>
+        <v>3.057117258629343</v>
       </c>
       <c r="H597">
-        <v>155792542.0805141</v>
+        <v>218890999.3422388</v>
       </c>
       <c r="I597">
-        <v>14.36</v>
+        <v>13.69</v>
       </c>
       <c r="J597">
-        <v>1786.724581435786</v>
+        <v>1800.818717307565</v>
       </c>
       <c r="K597" t="s">
         <v>98</v>
       </c>
       <c r="L597">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="M597">
-        <v>611</v>
+        <v>589</v>
       </c>
       <c r="N597">
         <v>596</v>
@@ -32317,166 +32317,166 @@
     </row>
     <row r="598" spans="1:17">
       <c r="A598" s="1">
-        <v>284</v>
+        <v>238</v>
       </c>
       <c r="B598">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C598" t="s">
         <v>17</v>
       </c>
       <c r="D598" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E598" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F598" t="s">
         <v>90</v>
       </c>
       <c r="G598">
-        <v>3.057117258629343</v>
+        <v>4.456923512878452</v>
       </c>
       <c r="H598">
-        <v>218890999.3422388</v>
+        <v>175452471.271027</v>
       </c>
       <c r="I598">
-        <v>13.69</v>
+        <v>15.05</v>
       </c>
       <c r="J598">
-        <v>1800.818717307565</v>
+        <v>1810.576982498511</v>
       </c>
       <c r="K598" t="s">
         <v>98</v>
       </c>
       <c r="L598">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="M598">
-        <v>589</v>
+        <v>614</v>
       </c>
       <c r="N598">
         <v>597</v>
       </c>
       <c r="O598">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P598">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q598">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:17">
       <c r="A599" s="1">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="B599">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C599" t="s">
         <v>17</v>
       </c>
       <c r="D599" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E599" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F599" t="s">
         <v>90</v>
       </c>
       <c r="G599">
-        <v>4.456923512878452</v>
+        <v>3.47153864687831</v>
       </c>
       <c r="H599">
-        <v>175452471.271027</v>
+        <v>179499744.7871334</v>
       </c>
       <c r="I599">
-        <v>15.05</v>
+        <v>13.34</v>
       </c>
       <c r="J599">
-        <v>1810.576982498511</v>
+        <v>1922.956511553731</v>
       </c>
       <c r="K599" t="s">
         <v>98</v>
       </c>
       <c r="L599">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="M599">
-        <v>614</v>
+        <v>593</v>
       </c>
       <c r="N599">
         <v>598</v>
       </c>
       <c r="O599">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P599">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q599">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="600" spans="1:17">
       <c r="A600" s="1">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="B600">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C600" t="s">
         <v>17</v>
       </c>
       <c r="D600" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E600" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F600" t="s">
         <v>90</v>
       </c>
       <c r="G600">
-        <v>3.47153864687831</v>
+        <v>4.568590500629657</v>
       </c>
       <c r="H600">
-        <v>179499744.7871334</v>
+        <v>161086010.9878837</v>
       </c>
       <c r="I600">
-        <v>13.34</v>
+        <v>15.07</v>
       </c>
       <c r="J600">
-        <v>1922.956511553731</v>
+        <v>1990.955000715891</v>
       </c>
       <c r="K600" t="s">
         <v>98</v>
       </c>
       <c r="L600">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="M600">
-        <v>593</v>
+        <v>615</v>
       </c>
       <c r="N600">
         <v>599</v>
       </c>
       <c r="O600">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P600">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q600">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:17">
       <c r="A601" s="1">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B601">
         <v>2002</v>
@@ -32485,107 +32485,107 @@
         <v>17</v>
       </c>
       <c r="D601" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E601" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F601" t="s">
         <v>90</v>
       </c>
       <c r="G601">
-        <v>4.568590500629657</v>
+        <v>3.660388473217305</v>
       </c>
       <c r="H601">
-        <v>161086010.9878837</v>
+        <v>181970896.4041982</v>
       </c>
       <c r="I601">
-        <v>15.07</v>
+        <v>13.89</v>
       </c>
       <c r="J601">
-        <v>1990.955000715891</v>
+        <v>2044.368788867682</v>
       </c>
       <c r="K601" t="s">
         <v>98</v>
       </c>
       <c r="L601">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="M601">
-        <v>615</v>
+        <v>598</v>
       </c>
       <c r="N601">
         <v>600</v>
       </c>
       <c r="O601">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P601">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q601">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="602" spans="1:17">
       <c r="A602" s="1">
-        <v>243</v>
+        <v>304</v>
       </c>
       <c r="B602">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="C602" t="s">
         <v>17</v>
       </c>
       <c r="D602" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E602" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F602" t="s">
         <v>90</v>
       </c>
       <c r="G602">
-        <v>3.660388473217305</v>
+        <v>3.675438650706758</v>
       </c>
       <c r="H602">
-        <v>181970896.4041982</v>
+        <v>260339249.6569176</v>
       </c>
       <c r="I602">
-        <v>13.89</v>
+        <v>17.22</v>
       </c>
       <c r="J602">
-        <v>2044.368788867682</v>
+        <v>2137.477989928811</v>
       </c>
       <c r="K602" t="s">
         <v>98</v>
       </c>
       <c r="L602">
-        <v>598</v>
+        <v>616</v>
       </c>
       <c r="M602">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="N602">
         <v>601</v>
       </c>
       <c r="O602">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P602">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q602">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:17">
       <c r="A603" s="1">
-        <v>304</v>
+        <v>370</v>
       </c>
       <c r="B603">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="C603" t="s">
         <v>17</v>
@@ -32600,25 +32600,25 @@
         <v>90</v>
       </c>
       <c r="G603">
-        <v>3.675438650706758</v>
+        <v>3.545943951125945</v>
       </c>
       <c r="H603">
-        <v>260339249.6569176</v>
+        <v>286461209.9342212</v>
       </c>
       <c r="I603">
-        <v>17.22</v>
+        <v>14.99</v>
       </c>
       <c r="J603">
-        <v>2137.477989928811</v>
+        <v>2200.464564321568</v>
       </c>
       <c r="K603" t="s">
         <v>98</v>
       </c>
       <c r="L603">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="M603">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="N603">
         <v>602</v>
@@ -32635,10 +32635,10 @@
     </row>
     <row r="604" spans="1:17">
       <c r="A604" s="1">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="B604">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C604" t="s">
         <v>17</v>
@@ -32653,25 +32653,25 @@
         <v>90</v>
       </c>
       <c r="G604">
-        <v>3.545943951125945</v>
+        <v>3.745613653639326</v>
       </c>
       <c r="H604">
-        <v>286461209.9342212</v>
+        <v>268775865.3780246</v>
       </c>
       <c r="I604">
-        <v>14.99</v>
+        <v>16.72</v>
       </c>
       <c r="J604">
-        <v>2200.464564321568</v>
+        <v>2213.07095489645</v>
       </c>
       <c r="K604" t="s">
         <v>98</v>
       </c>
       <c r="L604">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="M604">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="N604">
         <v>603</v>
@@ -32688,113 +32688,113 @@
     </row>
     <row r="605" spans="1:17">
       <c r="A605" s="1">
-        <v>337</v>
+        <v>276</v>
       </c>
       <c r="B605">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="C605" t="s">
         <v>17</v>
       </c>
       <c r="D605" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E605" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F605" t="s">
         <v>90</v>
       </c>
       <c r="G605">
-        <v>3.745613653639326</v>
+        <v>3.664324876330928</v>
       </c>
       <c r="H605">
-        <v>268775865.3780246</v>
+        <v>201318312.8902572</v>
       </c>
       <c r="I605">
-        <v>16.72</v>
+        <v>15.29</v>
       </c>
       <c r="J605">
-        <v>2213.07095489645</v>
+        <v>2251.411237391588</v>
       </c>
       <c r="K605" t="s">
         <v>98</v>
       </c>
       <c r="L605">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="M605">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="N605">
         <v>604</v>
       </c>
       <c r="O605">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P605">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q605">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="606" spans="1:17">
       <c r="A606" s="1">
-        <v>276</v>
+        <v>317</v>
       </c>
       <c r="B606">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C606" t="s">
         <v>17</v>
       </c>
       <c r="D606" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E606" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F606" t="s">
         <v>90</v>
       </c>
       <c r="G606">
-        <v>3.664324876330928</v>
+        <v>3.596528534665699</v>
       </c>
       <c r="H606">
-        <v>201318312.8902572</v>
+        <v>236882791.3291787</v>
       </c>
       <c r="I606">
-        <v>15.29</v>
+        <v>18</v>
       </c>
       <c r="J606">
-        <v>2251.411237391588</v>
+        <v>2278.646422866531</v>
       </c>
       <c r="K606" t="s">
         <v>98</v>
       </c>
       <c r="L606">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="M606">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="N606">
         <v>605</v>
       </c>
       <c r="O606">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P606">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q606">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:17">
       <c r="A607" s="1">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B607">
         <v>2004</v>
@@ -32803,104 +32803,104 @@
         <v>17</v>
       </c>
       <c r="D607" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E607" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F607" t="s">
         <v>90</v>
       </c>
       <c r="G607">
-        <v>3.596528534665699</v>
+        <v>3.688952951783332</v>
       </c>
       <c r="H607">
-        <v>236882791.3291787</v>
+        <v>212673815.2732982</v>
       </c>
       <c r="I607">
-        <v>18</v>
+        <v>17.12</v>
       </c>
       <c r="J607">
-        <v>2278.646422866531</v>
+        <v>2383.574057255737</v>
       </c>
       <c r="K607" t="s">
         <v>98</v>
       </c>
       <c r="L607">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="M607">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="N607">
         <v>606</v>
       </c>
       <c r="O607">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P607">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q607">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="608" spans="1:17">
       <c r="A608" s="1">
-        <v>309</v>
+        <v>350</v>
       </c>
       <c r="B608">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C608" t="s">
         <v>17</v>
       </c>
       <c r="D608" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E608" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F608" t="s">
         <v>90</v>
       </c>
       <c r="G608">
-        <v>3.688952951783332</v>
+        <v>4.211933808057543</v>
       </c>
       <c r="H608">
-        <v>212673815.2732982</v>
+        <v>225438848.1893628</v>
       </c>
       <c r="I608">
-        <v>17.12</v>
+        <v>17.6</v>
       </c>
       <c r="J608">
-        <v>2383.574057255737</v>
+        <v>2532.383233211665</v>
       </c>
       <c r="K608" t="s">
         <v>98</v>
       </c>
       <c r="L608">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="M608">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="N608">
         <v>607</v>
       </c>
       <c r="O608">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P608">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q608">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:17">
       <c r="A609" s="1">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B609">
         <v>2005</v>
@@ -32909,157 +32909,157 @@
         <v>17</v>
       </c>
       <c r="D609" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E609" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F609" t="s">
         <v>90</v>
       </c>
       <c r="G609">
-        <v>4.211933808057543</v>
+        <v>3.84153035393547</v>
       </c>
       <c r="H609">
-        <v>225438848.1893628</v>
+        <v>219105882.2766292</v>
       </c>
       <c r="I609">
-        <v>17.6</v>
+        <v>15.19</v>
       </c>
       <c r="J609">
-        <v>2532.383233211665</v>
+        <v>2545.709962320196</v>
       </c>
       <c r="K609" t="s">
         <v>98</v>
       </c>
       <c r="L609">
-        <v>622</v>
+        <v>604</v>
       </c>
       <c r="M609">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="N609">
         <v>608</v>
       </c>
       <c r="O609">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P609">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q609">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="610" spans="1:17">
       <c r="A610" s="1">
-        <v>342</v>
+        <v>403</v>
       </c>
       <c r="B610">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="C610" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D610" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E610" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F610" t="s">
         <v>90</v>
       </c>
       <c r="G610">
-        <v>3.84153035393547</v>
+        <v>4.115609940317691</v>
       </c>
       <c r="H610">
-        <v>219105882.2766292</v>
+        <v>294263651.9595864</v>
       </c>
       <c r="I610">
-        <v>15.19</v>
+        <v>20.61</v>
       </c>
       <c r="J610">
-        <v>2545.709962320196</v>
+        <v>2583.345809892844</v>
       </c>
       <c r="K610" t="s">
         <v>98</v>
       </c>
       <c r="L610">
-        <v>604</v>
+        <v>642</v>
       </c>
       <c r="M610">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="N610">
         <v>609</v>
       </c>
       <c r="O610">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P610">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q610">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:17">
       <c r="A611" s="1">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="B611">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C611" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D611" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E611" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F611" t="s">
         <v>90</v>
       </c>
       <c r="G611">
-        <v>4.115609940317691</v>
+        <v>3.956480762178007</v>
       </c>
       <c r="H611">
-        <v>294263651.9595864</v>
+        <v>224292687.6723781</v>
       </c>
       <c r="I611">
-        <v>20.61</v>
+        <v>15.49</v>
       </c>
       <c r="J611">
-        <v>2583.345809892844</v>
+        <v>2668.519309324456</v>
       </c>
       <c r="K611" t="s">
         <v>98</v>
       </c>
       <c r="L611">
-        <v>642</v>
+        <v>606</v>
       </c>
       <c r="M611">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="N611">
         <v>610</v>
       </c>
       <c r="O611">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P611">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q611">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="612" spans="1:17">
       <c r="A612" s="1">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="B612">
         <v>2006</v>
@@ -33068,157 +33068,157 @@
         <v>17</v>
       </c>
       <c r="D612" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E612" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F612" t="s">
         <v>90</v>
       </c>
       <c r="G612">
-        <v>3.956480762178007</v>
+        <v>3.830158871802823</v>
       </c>
       <c r="H612">
-        <v>224292687.6723781</v>
+        <v>262982754.4100457</v>
       </c>
       <c r="I612">
-        <v>15.49</v>
+        <v>16.86</v>
       </c>
       <c r="J612">
-        <v>2668.519309324456</v>
+        <v>2683.361798768535</v>
       </c>
       <c r="K612" t="s">
         <v>98</v>
       </c>
       <c r="L612">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="M612">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="N612">
         <v>611</v>
       </c>
       <c r="O612">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P612">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q612">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:17">
       <c r="A613" s="1">
-        <v>383</v>
+        <v>436</v>
       </c>
       <c r="B613">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="C613" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D613" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E613" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F613" t="s">
         <v>90</v>
       </c>
       <c r="G613">
-        <v>3.830158871802823</v>
+        <v>4.332918851275442</v>
       </c>
       <c r="H613">
-        <v>262982754.4100457</v>
+        <v>305571824.032473</v>
       </c>
       <c r="I613">
-        <v>16.86</v>
+        <v>17.33</v>
       </c>
       <c r="J613">
-        <v>2683.361798768535</v>
+        <v>2780.335413583261</v>
       </c>
       <c r="K613" t="s">
         <v>98</v>
       </c>
       <c r="L613">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="M613">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="N613">
         <v>612</v>
       </c>
       <c r="O613">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P613">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q613">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:17">
       <c r="A614" s="1">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="B614">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C614" t="s">
         <v>18</v>
       </c>
       <c r="D614" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E614" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F614" t="s">
         <v>90</v>
       </c>
       <c r="G614">
-        <v>4.332918851275442</v>
+        <v>4.105139550811622</v>
       </c>
       <c r="H614">
-        <v>305571824.032473</v>
+        <v>257885706.5883435</v>
       </c>
       <c r="I614">
-        <v>17.33</v>
+        <v>19.21</v>
       </c>
       <c r="J614">
-        <v>2780.335413583261</v>
+        <v>2805.446438077728</v>
       </c>
       <c r="K614" t="s">
         <v>98</v>
       </c>
       <c r="L614">
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="M614">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="N614">
         <v>613</v>
       </c>
       <c r="O614">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P614">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q614">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:17">
       <c r="A615" s="1">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B615">
         <v>2007</v>
@@ -33227,107 +33227,107 @@
         <v>18</v>
       </c>
       <c r="D615" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E615" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F615" t="s">
         <v>90</v>
       </c>
       <c r="G615">
-        <v>4.105139550811622</v>
+        <v>4.032481916194429</v>
       </c>
       <c r="H615">
-        <v>257885706.5883435</v>
+        <v>235924314.1809207</v>
       </c>
       <c r="I615">
-        <v>19.21</v>
+        <v>16.38</v>
       </c>
       <c r="J615">
-        <v>2805.446438077728</v>
+        <v>2840.012259492002</v>
       </c>
       <c r="K615" t="s">
         <v>98</v>
       </c>
       <c r="L615">
-        <v>632</v>
+        <v>608</v>
       </c>
       <c r="M615">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="N615">
         <v>614</v>
       </c>
       <c r="O615">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P615">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q615">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="616" spans="1:17">
       <c r="A616" s="1">
-        <v>408</v>
+        <v>469</v>
       </c>
       <c r="B616">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="C616" t="s">
         <v>18</v>
       </c>
       <c r="D616" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E616" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F616" t="s">
         <v>90</v>
       </c>
       <c r="G616">
-        <v>4.032481916194429</v>
+        <v>4.837039814245177</v>
       </c>
       <c r="H616">
-        <v>235924314.1809207</v>
+        <v>293095823.1496418</v>
       </c>
       <c r="I616">
-        <v>16.38</v>
+        <v>14.37</v>
       </c>
       <c r="J616">
-        <v>2840.012259492002</v>
+        <v>2931.384863204366</v>
       </c>
       <c r="K616" t="s">
         <v>98</v>
       </c>
       <c r="L616">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M616">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="N616">
         <v>615</v>
       </c>
       <c r="O616">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P616">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q616">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:17">
       <c r="A617" s="1">
-        <v>469</v>
+        <v>502</v>
       </c>
       <c r="B617">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C617" t="s">
         <v>18</v>
@@ -33342,25 +33342,25 @@
         <v>90</v>
       </c>
       <c r="G617">
-        <v>4.837039814245177</v>
+        <v>4.897155423893765</v>
       </c>
       <c r="H617">
-        <v>293095823.1496418</v>
+        <v>310139747.7267052</v>
       </c>
       <c r="I617">
-        <v>14.37</v>
+        <v>15.78</v>
       </c>
       <c r="J617">
-        <v>2931.384863204366</v>
+        <v>3097.218865740026</v>
       </c>
       <c r="K617" t="s">
         <v>98</v>
       </c>
       <c r="L617">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="M617">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="N617">
         <v>616</v>
@@ -33377,60 +33377,60 @@
     </row>
     <row r="618" spans="1:17">
       <c r="A618" s="1">
-        <v>502</v>
+        <v>474</v>
       </c>
       <c r="B618">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C618" t="s">
         <v>18</v>
       </c>
       <c r="D618" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E618" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F618" t="s">
         <v>90</v>
       </c>
       <c r="G618">
-        <v>4.897155423893765</v>
+        <v>4.743511492219538</v>
       </c>
       <c r="H618">
-        <v>310139747.7267052</v>
+        <v>230363725.2932448</v>
       </c>
       <c r="I618">
-        <v>15.78</v>
+        <v>17.16</v>
       </c>
       <c r="J618">
-        <v>3097.218865740026</v>
+        <v>3199.60991030116</v>
       </c>
       <c r="K618" t="s">
         <v>98</v>
       </c>
       <c r="L618">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="M618">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N618">
         <v>617</v>
       </c>
       <c r="O618">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P618">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q618">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="619" spans="1:17">
       <c r="A619" s="1">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="B619">
         <v>2009</v>
@@ -33439,163 +33439,163 @@
         <v>18</v>
       </c>
       <c r="D619" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E619" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F619" t="s">
         <v>90</v>
       </c>
       <c r="G619">
-        <v>4.743511492219538</v>
+        <v>4.936438837240612</v>
       </c>
       <c r="H619">
-        <v>230363725.2932448</v>
+        <v>256399449.9945256</v>
       </c>
       <c r="I619">
-        <v>17.16</v>
+        <v>17.03</v>
       </c>
       <c r="J619">
-        <v>3199.60991030116</v>
+        <v>3297.526929200672</v>
       </c>
       <c r="K619" t="s">
         <v>98</v>
       </c>
       <c r="L619">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="M619">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="N619">
         <v>618</v>
       </c>
       <c r="O619">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P619">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q619">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:17">
       <c r="A620" s="1">
-        <v>482</v>
+        <v>441</v>
       </c>
       <c r="B620">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C620" t="s">
         <v>18</v>
       </c>
       <c r="D620" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E620" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F620" t="s">
         <v>90</v>
       </c>
       <c r="G620">
-        <v>4.936438837240612</v>
+        <v>4.788414783842138</v>
       </c>
       <c r="H620">
-        <v>256399449.9945256</v>
+        <v>234224998.5993003</v>
       </c>
       <c r="I620">
-        <v>17.03</v>
+        <v>17.02</v>
       </c>
       <c r="J620">
-        <v>3297.526929200672</v>
+        <v>3317.321913442863</v>
       </c>
       <c r="K620" t="s">
         <v>98</v>
       </c>
       <c r="L620">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="M620">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="N620">
         <v>619</v>
       </c>
       <c r="O620">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P620">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q620">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="621" spans="1:17">
       <c r="A621" s="1">
-        <v>441</v>
+        <v>733</v>
       </c>
       <c r="B621">
-        <v>2008</v>
+        <v>2017</v>
       </c>
       <c r="C621" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D621" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E621" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F621" t="s">
         <v>90</v>
       </c>
       <c r="G621">
-        <v>4.788414783842138</v>
+        <v>5.487927545243357</v>
       </c>
       <c r="H621">
-        <v>234224998.5993003</v>
+        <v>332091614</v>
       </c>
       <c r="I621">
-        <v>17.02</v>
+        <v>19.37144775414854</v>
       </c>
       <c r="J621">
-        <v>3317.321913442863</v>
+        <v>3386.225585920775</v>
       </c>
       <c r="K621" t="s">
         <v>98</v>
       </c>
       <c r="L621">
-        <v>612</v>
+        <v>635</v>
       </c>
       <c r="M621">
-        <v>617</v>
+        <v>641</v>
       </c>
       <c r="N621">
         <v>620</v>
       </c>
       <c r="O621">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P621">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q621">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:17">
       <c r="A622" s="1">
-        <v>733</v>
+        <v>535</v>
       </c>
       <c r="B622">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="C622" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D622" t="s">
         <v>46</v>
@@ -33607,25 +33607,25 @@
         <v>90</v>
       </c>
       <c r="G622">
-        <v>5.487927545243357</v>
+        <v>5.198821568577318</v>
       </c>
       <c r="H622">
-        <v>332091614</v>
+        <v>325345028.5079675</v>
       </c>
       <c r="I622">
-        <v>19.37144775414854</v>
+        <v>17.42</v>
       </c>
       <c r="J622">
-        <v>3386.225585920775</v>
+        <v>3395.977148842416</v>
       </c>
       <c r="K622" t="s">
         <v>98</v>
       </c>
       <c r="L622">
-        <v>635</v>
+        <v>618</v>
       </c>
       <c r="M622">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="N622">
         <v>621</v>
@@ -33642,13 +33642,13 @@
     </row>
     <row r="623" spans="1:17">
       <c r="A623" s="1">
-        <v>535</v>
+        <v>634</v>
       </c>
       <c r="B623">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="C623" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D623" t="s">
         <v>46</v>
@@ -33660,25 +33660,25 @@
         <v>90</v>
       </c>
       <c r="G623">
-        <v>5.198821568577318</v>
+        <v>5.269298367933393</v>
       </c>
       <c r="H623">
-        <v>325345028.5079675</v>
+        <v>334615562.7563036</v>
       </c>
       <c r="I623">
-        <v>17.42</v>
+        <v>17.63860114840451</v>
       </c>
       <c r="J623">
-        <v>3395.977148842416</v>
+        <v>3399.527161132448</v>
       </c>
       <c r="K623" t="s">
         <v>98</v>
       </c>
       <c r="L623">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="M623">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="N623">
         <v>622</v>
@@ -33695,10 +33695,10 @@
     </row>
     <row r="624" spans="1:17">
       <c r="A624" s="1">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="B624">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="C624" t="s">
         <v>19</v>
@@ -33713,25 +33713,25 @@
         <v>90</v>
       </c>
       <c r="G624">
-        <v>5.269298367933393</v>
+        <v>5.326774011539438</v>
       </c>
       <c r="H624">
-        <v>334615562.7563036</v>
+        <v>340050766.0781</v>
       </c>
       <c r="I624">
-        <v>17.63860114840451</v>
+        <v>18.1413912553016</v>
       </c>
       <c r="J624">
-        <v>3399.527161132448</v>
+        <v>3406.143677930823</v>
       </c>
       <c r="K624" t="s">
         <v>98</v>
       </c>
       <c r="L624">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="M624">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="N624">
         <v>623</v>
@@ -33748,60 +33748,60 @@
     </row>
     <row r="625" spans="1:17">
       <c r="A625" s="1">
-        <v>700</v>
+        <v>515</v>
       </c>
       <c r="B625">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="C625" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D625" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E625" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F625" t="s">
         <v>90</v>
       </c>
       <c r="G625">
-        <v>5.326774011539438</v>
+        <v>4.907482485310705</v>
       </c>
       <c r="H625">
-        <v>340050766.0781</v>
+        <v>269253633.2564325</v>
       </c>
       <c r="I625">
-        <v>18.1413912553016</v>
+        <v>17.44</v>
       </c>
       <c r="J625">
-        <v>3406.143677930823</v>
+        <v>3416.025755711192</v>
       </c>
       <c r="K625" t="s">
         <v>98</v>
       </c>
       <c r="L625">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="M625">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="N625">
         <v>624</v>
       </c>
       <c r="O625">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P625">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q625">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:17">
       <c r="A626" s="1">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="B626">
         <v>2010</v>
@@ -33810,107 +33810,107 @@
         <v>18</v>
       </c>
       <c r="D626" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E626" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F626" t="s">
         <v>90</v>
       </c>
       <c r="G626">
-        <v>4.907482485310705</v>
+        <v>4.917788202181055</v>
       </c>
       <c r="H626">
-        <v>269253633.2564325</v>
+        <v>240337194.5252993</v>
       </c>
       <c r="I626">
-        <v>17.44</v>
+        <v>19.09</v>
       </c>
       <c r="J626">
-        <v>3416.025755711192</v>
+        <v>3431.577940376884</v>
       </c>
       <c r="K626" t="s">
         <v>98</v>
       </c>
       <c r="L626">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="M626">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="N626">
         <v>625</v>
       </c>
       <c r="O626">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P626">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q626">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="627" spans="1:17">
       <c r="A627" s="1">
-        <v>507</v>
+        <v>667</v>
       </c>
       <c r="B627">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="C627" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D627" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E627" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F627" t="s">
         <v>90</v>
       </c>
       <c r="G627">
-        <v>4.917788202181055</v>
+        <v>5.546580211196764</v>
       </c>
       <c r="H627">
-        <v>240337194.5252993</v>
+        <v>331948903.7467296</v>
       </c>
       <c r="I627">
-        <v>19.09</v>
+        <v>17.48332749996804</v>
       </c>
       <c r="J627">
-        <v>3431.577940376884</v>
+        <v>3505.137101506675</v>
       </c>
       <c r="K627" t="s">
         <v>98</v>
       </c>
       <c r="L627">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="M627">
-        <v>621</v>
+        <v>642</v>
       </c>
       <c r="N627">
         <v>626</v>
       </c>
       <c r="O627">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P627">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q627">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:17">
       <c r="A628" s="1">
-        <v>667</v>
+        <v>601</v>
       </c>
       <c r="B628">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C628" t="s">
         <v>19</v>
@@ -33925,25 +33925,25 @@
         <v>90</v>
       </c>
       <c r="G628">
-        <v>5.546580211196764</v>
+        <v>5.764012755804993</v>
       </c>
       <c r="H628">
-        <v>331948903.7467296</v>
+        <v>324049878.8417544</v>
       </c>
       <c r="I628">
-        <v>17.48332749996804</v>
+        <v>19.77206337900904</v>
       </c>
       <c r="J628">
-        <v>3505.137101506675</v>
+        <v>3648.680932956106</v>
       </c>
       <c r="K628" t="s">
         <v>98</v>
       </c>
       <c r="L628">
-        <v>620</v>
+        <v>639</v>
       </c>
       <c r="M628">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="N628">
         <v>627</v>
@@ -33960,60 +33960,60 @@
     </row>
     <row r="629" spans="1:17">
       <c r="A629" s="1">
-        <v>601</v>
+        <v>540</v>
       </c>
       <c r="B629">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C629" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D629" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E629" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F629" t="s">
         <v>90</v>
       </c>
       <c r="G629">
-        <v>5.764012755804993</v>
+        <v>5.16727631147572</v>
       </c>
       <c r="H629">
-        <v>324049878.8417544</v>
+        <v>246112318.8269361</v>
       </c>
       <c r="I629">
-        <v>19.77206337900904</v>
+        <v>19.48</v>
       </c>
       <c r="J629">
-        <v>3648.680932956106</v>
+        <v>3661.281264840562</v>
       </c>
       <c r="K629" t="s">
         <v>98</v>
       </c>
       <c r="L629">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="M629">
-        <v>644</v>
+        <v>627</v>
       </c>
       <c r="N629">
         <v>628</v>
       </c>
       <c r="O629">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P629">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q629">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="630" spans="1:17">
       <c r="A630" s="1">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="B630">
         <v>2011</v>
@@ -34022,54 +34022,54 @@
         <v>18</v>
       </c>
       <c r="D630" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E630" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F630" t="s">
         <v>90</v>
       </c>
       <c r="G630">
-        <v>5.16727631147572</v>
+        <v>5.080783771629044</v>
       </c>
       <c r="H630">
-        <v>246112318.8269361</v>
+        <v>281340447.4488613</v>
       </c>
       <c r="I630">
-        <v>19.48</v>
+        <v>19.58</v>
       </c>
       <c r="J630">
-        <v>3661.281264840562</v>
+        <v>3663.877292755896</v>
       </c>
       <c r="K630" t="s">
         <v>98</v>
       </c>
       <c r="L630">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="M630">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="N630">
         <v>629</v>
       </c>
       <c r="O630">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P630">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q630">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:17">
       <c r="A631" s="1">
-        <v>548</v>
+        <v>449</v>
       </c>
       <c r="B631">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="C631" t="s">
         <v>18</v>
@@ -34084,25 +34084,25 @@
         <v>90</v>
       </c>
       <c r="G631">
-        <v>5.080783771629044</v>
+        <v>5.228797398342287</v>
       </c>
       <c r="H631">
-        <v>281340447.4488613</v>
+        <v>268502360.7547342</v>
       </c>
       <c r="I631">
-        <v>19.58</v>
+        <v>19.96</v>
       </c>
       <c r="J631">
-        <v>3663.877292755896</v>
+        <v>3690.623115027897</v>
       </c>
       <c r="K631" t="s">
         <v>98</v>
       </c>
       <c r="L631">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="M631">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="N631">
         <v>630</v>
@@ -34119,13 +34119,13 @@
     </row>
     <row r="632" spans="1:17">
       <c r="A632" s="1">
-        <v>449</v>
+        <v>614</v>
       </c>
       <c r="B632">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="C632" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D632" t="s">
         <v>45</v>
@@ -34137,25 +34137,25 @@
         <v>90</v>
       </c>
       <c r="G632">
-        <v>5.228797398342287</v>
+        <v>5.182478548768656</v>
       </c>
       <c r="H632">
-        <v>268502360.7547342</v>
+        <v>283204930.0046958</v>
       </c>
       <c r="I632">
-        <v>19.96</v>
+        <v>19.22281630639722</v>
       </c>
       <c r="J632">
-        <v>3690.623115027897</v>
+        <v>3707.218752185028</v>
       </c>
       <c r="K632" t="s">
         <v>98</v>
       </c>
       <c r="L632">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="M632">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="N632">
         <v>631</v>
@@ -34172,60 +34172,60 @@
     </row>
     <row r="633" spans="1:17">
       <c r="A633" s="1">
-        <v>614</v>
+        <v>568</v>
       </c>
       <c r="B633">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C633" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D633" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E633" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F633" t="s">
         <v>90</v>
       </c>
       <c r="G633">
-        <v>5.182478548768656</v>
+        <v>5.572232095317919</v>
       </c>
       <c r="H633">
-        <v>283204930.0046958</v>
+        <v>337838939.441165</v>
       </c>
       <c r="I633">
-        <v>19.22281630639722</v>
+        <v>20.7</v>
       </c>
       <c r="J633">
-        <v>3707.218752185028</v>
+        <v>3727.33928818866</v>
       </c>
       <c r="K633" t="s">
         <v>98</v>
       </c>
       <c r="L633">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="M633">
-        <v>629</v>
+        <v>643</v>
       </c>
       <c r="N633">
         <v>632</v>
       </c>
       <c r="O633">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P633">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q633">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:17">
       <c r="A634" s="1">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="B634">
         <v>2012</v>
@@ -34234,110 +34234,110 @@
         <v>18</v>
       </c>
       <c r="D634" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E634" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F634" t="s">
         <v>90</v>
       </c>
       <c r="G634">
-        <v>5.572232095317919</v>
+        <v>5.166419476794829</v>
       </c>
       <c r="H634">
-        <v>337838939.441165</v>
+        <v>254691812.8626538</v>
       </c>
       <c r="I634">
-        <v>20.7</v>
+        <v>20.43</v>
       </c>
       <c r="J634">
-        <v>3727.33928818866</v>
+        <v>3760.080273338712</v>
       </c>
       <c r="K634" t="s">
         <v>98</v>
       </c>
       <c r="L634">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="M634">
-        <v>643</v>
+        <v>626</v>
       </c>
       <c r="N634">
         <v>633</v>
       </c>
       <c r="O634">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P634">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q634">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="635" spans="1:17">
       <c r="A635" s="1">
-        <v>573</v>
+        <v>647</v>
       </c>
       <c r="B635">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="C635" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D635" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E635" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F635" t="s">
         <v>90</v>
       </c>
       <c r="G635">
-        <v>5.166419476794829</v>
+        <v>5.102303712319987</v>
       </c>
       <c r="H635">
-        <v>254691812.8626538</v>
+        <v>293959540.1882123</v>
       </c>
       <c r="I635">
-        <v>20.43</v>
+        <v>17.86358949820812</v>
       </c>
       <c r="J635">
-        <v>3760.080273338712</v>
+        <v>3762.652640566473</v>
       </c>
       <c r="K635" t="s">
         <v>98</v>
       </c>
       <c r="L635">
-        <v>641</v>
+        <v>624</v>
       </c>
       <c r="M635">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="N635">
         <v>634</v>
       </c>
       <c r="O635">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P635">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q635">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:17">
       <c r="A636" s="1">
-        <v>647</v>
+        <v>581</v>
       </c>
       <c r="B636">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C636" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D636" t="s">
         <v>45</v>
@@ -34349,25 +34349,25 @@
         <v>90</v>
       </c>
       <c r="G636">
-        <v>5.102303712319987</v>
+        <v>4.97768792589036</v>
       </c>
       <c r="H636">
-        <v>293959540.1882123</v>
+        <v>298427126.0811183</v>
       </c>
       <c r="I636">
-        <v>17.86358949820812</v>
+        <v>20.86</v>
       </c>
       <c r="J636">
-        <v>3762.652640566473</v>
+        <v>3779.041261442094</v>
       </c>
       <c r="K636" t="s">
         <v>98</v>
       </c>
       <c r="L636">
-        <v>624</v>
+        <v>644</v>
       </c>
       <c r="M636">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="N636">
         <v>635</v>
@@ -34384,116 +34384,116 @@
     </row>
     <row r="637" spans="1:17">
       <c r="A637" s="1">
-        <v>581</v>
+        <v>606</v>
       </c>
       <c r="B637">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C637" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D637" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E637" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F637" t="s">
         <v>90</v>
       </c>
       <c r="G637">
-        <v>4.97768792589036</v>
+        <v>5.368849987316473</v>
       </c>
       <c r="H637">
-        <v>298427126.0811183</v>
+        <v>252400931.2971187</v>
       </c>
       <c r="I637">
-        <v>20.86</v>
+        <v>19.1226169608564</v>
       </c>
       <c r="J637">
-        <v>3779.041261442094</v>
+        <v>3845.508920670719</v>
       </c>
       <c r="K637" t="s">
         <v>98</v>
       </c>
       <c r="L637">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="M637">
-        <v>623</v>
+        <v>637</v>
       </c>
       <c r="N637">
         <v>636</v>
       </c>
       <c r="O637">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P637">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q637">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="638" spans="1:17">
       <c r="A638" s="1">
-        <v>606</v>
+        <v>746</v>
       </c>
       <c r="B638">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C638" t="s">
         <v>19</v>
       </c>
       <c r="D638" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E638" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F638" t="s">
         <v>90</v>
       </c>
       <c r="G638">
-        <v>5.368849987316473</v>
+        <v>5.191889637581846</v>
       </c>
       <c r="H638">
-        <v>252400931.2971187</v>
+        <v>305450056</v>
       </c>
       <c r="I638">
-        <v>19.1226169608564</v>
+        <v>19.48567588382818</v>
       </c>
       <c r="J638">
-        <v>3845.508920670719</v>
+        <v>3904.626743649434</v>
       </c>
       <c r="K638" t="s">
         <v>98</v>
       </c>
       <c r="L638">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="M638">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="N638">
         <v>637</v>
       </c>
       <c r="O638">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P638">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q638">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:17">
       <c r="A639" s="1">
-        <v>746</v>
+        <v>713</v>
       </c>
       <c r="B639">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C639" t="s">
         <v>19</v>
@@ -34508,25 +34508,25 @@
         <v>90</v>
       </c>
       <c r="G639">
-        <v>5.191889637581846</v>
+        <v>5.407809705429806</v>
       </c>
       <c r="H639">
-        <v>305450056</v>
+        <v>294604232.9816</v>
       </c>
       <c r="I639">
-        <v>19.48567588382818</v>
+        <v>18.07367864829142</v>
       </c>
       <c r="J639">
-        <v>3904.626743649434</v>
+        <v>3946.055873628713</v>
       </c>
       <c r="K639" t="s">
         <v>98</v>
       </c>
       <c r="L639">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="M639">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="N639">
         <v>638</v>
@@ -34543,63 +34543,63 @@
     </row>
     <row r="640" spans="1:17">
       <c r="A640" s="1">
-        <v>713</v>
+        <v>639</v>
       </c>
       <c r="B640">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C640" t="s">
         <v>19</v>
       </c>
       <c r="D640" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E640" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F640" t="s">
         <v>90</v>
       </c>
       <c r="G640">
-        <v>5.407809705429806</v>
+        <v>5.411337775627277</v>
       </c>
       <c r="H640">
-        <v>294604232.9816</v>
+        <v>261550822.2555144</v>
       </c>
       <c r="I640">
-        <v>18.07367864829142</v>
+        <v>16.53904203908957</v>
       </c>
       <c r="J640">
-        <v>3946.055873628713</v>
+        <v>3990.571105668101</v>
       </c>
       <c r="K640" t="s">
         <v>98</v>
       </c>
       <c r="L640">
-        <v>626</v>
+        <v>609</v>
       </c>
       <c r="M640">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N640">
         <v>639</v>
       </c>
       <c r="O640">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P640">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q640">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="641" spans="1:17">
       <c r="A641" s="1">
-        <v>639</v>
+        <v>672</v>
       </c>
       <c r="B641">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C641" t="s">
         <v>19</v>
@@ -34614,25 +34614,25 @@
         <v>90</v>
       </c>
       <c r="G641">
-        <v>5.411337775627277</v>
+        <v>5.289781560774297</v>
       </c>
       <c r="H641">
-        <v>261550822.2555144</v>
+        <v>271978848.9454781</v>
       </c>
       <c r="I641">
-        <v>16.53904203908957</v>
+        <v>18.693116412708</v>
       </c>
       <c r="J641">
-        <v>3990.571105668101</v>
+        <v>4032.098246613439</v>
       </c>
       <c r="K641" t="s">
         <v>98</v>
       </c>
       <c r="L641">
-        <v>609</v>
+        <v>628</v>
       </c>
       <c r="M641">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="N641">
         <v>640</v>
@@ -34649,10 +34649,10 @@
     </row>
     <row r="642" spans="1:17">
       <c r="A642" s="1">
-        <v>672</v>
+        <v>705</v>
       </c>
       <c r="B642">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C642" t="s">
         <v>19</v>
@@ -34667,25 +34667,25 @@
         <v>90</v>
       </c>
       <c r="G642">
-        <v>5.289781560774297</v>
+        <v>5.181626088978408</v>
       </c>
       <c r="H642">
-        <v>271978848.9454781</v>
+        <v>282206109.8177</v>
       </c>
       <c r="I642">
-        <v>18.693116412708</v>
+        <v>18.93436052361498</v>
       </c>
       <c r="J642">
-        <v>4032.098246613439</v>
+        <v>4075.202406463588</v>
       </c>
       <c r="K642" t="s">
         <v>98</v>
       </c>
       <c r="L642">
+        <v>629</v>
+      </c>
+      <c r="M642">
         <v>628</v>
-      </c>
-      <c r="M642">
-        <v>635</v>
       </c>
       <c r="N642">
         <v>641</v>
@@ -34702,10 +34702,10 @@
     </row>
     <row r="643" spans="1:17">
       <c r="A643" s="1">
-        <v>705</v>
+        <v>738</v>
       </c>
       <c r="B643">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C643" t="s">
         <v>19</v>
@@ -34720,25 +34720,25 @@
         <v>90</v>
       </c>
       <c r="G643">
-        <v>5.181626088978408</v>
+        <v>5.196336239771369</v>
       </c>
       <c r="H643">
-        <v>282206109.8177</v>
+        <v>287625173</v>
       </c>
       <c r="I643">
-        <v>18.93436052361498</v>
+        <v>17.56810210347179</v>
       </c>
       <c r="J643">
-        <v>4075.202406463588</v>
+        <v>4143.360408544026</v>
       </c>
       <c r="K643" t="s">
         <v>98</v>
       </c>
       <c r="L643">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="M643">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N643">
         <v>642</v>
@@ -34755,108 +34755,108 @@
     </row>
     <row r="644" spans="1:17">
       <c r="A644" s="1">
-        <v>738</v>
+        <v>680</v>
       </c>
       <c r="B644">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C644" t="s">
         <v>19</v>
       </c>
       <c r="D644" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E644" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F644" t="s">
         <v>90</v>
       </c>
       <c r="G644">
-        <v>5.196336239771369</v>
+        <v>5.414589740559593</v>
       </c>
       <c r="H644">
-        <v>287625173</v>
+        <v>312130050.391073</v>
       </c>
       <c r="I644">
-        <v>17.56810210347179</v>
+        <v>19.31479915359115</v>
       </c>
       <c r="J644">
-        <v>4143.360408544026</v>
+        <v>4212.193191676702</v>
       </c>
       <c r="K644" t="s">
         <v>98</v>
       </c>
       <c r="L644">
-        <v>621</v>
+        <v>634</v>
       </c>
       <c r="M644">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="N644">
         <v>643</v>
       </c>
       <c r="O644">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P644">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q644">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:17">
       <c r="A645" s="1">
-        <v>680</v>
+        <v>7</v>
       </c>
       <c r="B645">
-        <v>2015</v>
+        <v>1995</v>
       </c>
       <c r="C645" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D645" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E645" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F645" t="s">
         <v>90</v>
       </c>
       <c r="G645">
-        <v>5.414589740559593</v>
+        <v>3.08261182905269</v>
       </c>
       <c r="H645">
-        <v>312130050.391073</v>
+        <v>128285308.1604958</v>
       </c>
       <c r="I645">
-        <v>19.31479915359115</v>
+        <v>12.54254844328326</v>
       </c>
       <c r="J645">
-        <v>4212.193191676702</v>
+        <v>11059.6243171034</v>
       </c>
       <c r="K645" t="s">
         <v>98</v>
       </c>
       <c r="L645">
-        <v>634</v>
+        <v>589</v>
       </c>
       <c r="M645">
-        <v>640</v>
+        <v>591</v>
       </c>
       <c r="N645">
         <v>644</v>
       </c>
       <c r="O645">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P645">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q645">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:17">

--- a/dist/Regiones_Flourish.xlsx
+++ b/dist/Regiones_Flourish.xlsx
@@ -31681,113 +31681,113 @@
     </row>
     <row r="586" spans="1:17">
       <c r="A586" s="1">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="B586">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="C586" t="s">
         <v>16</v>
       </c>
       <c r="D586" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E586" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F586" t="s">
         <v>90</v>
       </c>
       <c r="G586">
-        <v>2.872199037467958</v>
+        <v>3.08261182905269</v>
       </c>
       <c r="H586">
-        <v>137309429.855505</v>
+        <v>128285308.1604958</v>
       </c>
       <c r="I586">
-        <v>12.00394217088926</v>
+        <v>12.54254844328326</v>
       </c>
       <c r="J586">
-        <v>1236.908576301448</v>
+        <v>1059.6243171034</v>
       </c>
       <c r="K586" t="s">
         <v>98</v>
       </c>
       <c r="L586">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="M586">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="N586">
         <v>585</v>
       </c>
       <c r="O586">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P586">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q586">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:17">
       <c r="A587" s="1">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="B587">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="C587" t="s">
         <v>16</v>
       </c>
       <c r="D587" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E587" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F587" t="s">
         <v>90</v>
       </c>
       <c r="G587">
-        <v>3.463830705519265</v>
+        <v>2.872199037467958</v>
       </c>
       <c r="H587">
-        <v>136788433.3313289</v>
+        <v>137309429.855505</v>
       </c>
       <c r="I587">
-        <v>11.74957728287245</v>
+        <v>12.00394217088926</v>
       </c>
       <c r="J587">
-        <v>1296.363312731761</v>
+        <v>1236.908576301448</v>
       </c>
       <c r="K587" t="s">
         <v>98</v>
       </c>
       <c r="L587">
+        <v>587</v>
+      </c>
+      <c r="M587">
         <v>585</v>
-      </c>
-      <c r="M587">
-        <v>592</v>
       </c>
       <c r="N587">
         <v>586</v>
       </c>
       <c r="O587">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P587">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q587">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="588" spans="1:17">
       <c r="A588" s="1">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="B588">
         <v>1999</v>
@@ -31796,157 +31796,157 @@
         <v>16</v>
       </c>
       <c r="D588" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E588" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F588" t="s">
         <v>90</v>
       </c>
       <c r="G588">
-        <v>3.553554401431217</v>
+        <v>3.463830705519265</v>
       </c>
       <c r="H588">
-        <v>149720209.231084</v>
+        <v>136788433.3313289</v>
       </c>
       <c r="I588">
-        <v>10.62069240340024</v>
+        <v>11.74957728287245</v>
       </c>
       <c r="J588">
-        <v>1302.927965833265</v>
+        <v>1296.363312731761</v>
       </c>
       <c r="K588" t="s">
         <v>98</v>
       </c>
       <c r="L588">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="M588">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="N588">
         <v>587</v>
       </c>
       <c r="O588">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P588">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q588">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:17">
       <c r="A589" s="1">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="B589">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="C589" t="s">
         <v>16</v>
       </c>
       <c r="D589" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E589" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F589" t="s">
         <v>90</v>
       </c>
       <c r="G589">
-        <v>2.997898268583322</v>
+        <v>3.553554401431217</v>
       </c>
       <c r="H589">
-        <v>144499380.6313836</v>
+        <v>149720209.231084</v>
       </c>
       <c r="I589">
-        <v>12.83146996128246</v>
+        <v>10.62069240340024</v>
       </c>
       <c r="J589">
-        <v>1351.914731553749</v>
+        <v>1302.927965833265</v>
       </c>
       <c r="K589" t="s">
         <v>98</v>
       </c>
       <c r="L589">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="M589">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="N589">
         <v>588</v>
       </c>
       <c r="O589">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P589">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q589">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:17">
       <c r="A590" s="1">
-        <v>185</v>
+        <v>111</v>
       </c>
       <c r="B590">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="C590" t="s">
         <v>16</v>
       </c>
       <c r="D590" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E590" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F590" t="s">
         <v>90</v>
       </c>
       <c r="G590">
-        <v>3.529412696284791</v>
+        <v>2.997898268583322</v>
       </c>
       <c r="H590">
-        <v>147763109.885169</v>
+        <v>144499380.6313836</v>
       </c>
       <c r="I590">
-        <v>12.12</v>
+        <v>12.83146996128246</v>
       </c>
       <c r="J590">
-        <v>1420.481273646244</v>
+        <v>1351.914731553749</v>
       </c>
       <c r="K590" t="s">
         <v>98</v>
       </c>
       <c r="L590">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="M590">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="N590">
         <v>589</v>
       </c>
       <c r="O590">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P590">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q590">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="591" spans="1:17">
       <c r="A591" s="1">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="B591">
         <v>2000</v>
@@ -31955,107 +31955,107 @@
         <v>16</v>
       </c>
       <c r="D591" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E591" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F591" t="s">
         <v>90</v>
       </c>
       <c r="G591">
-        <v>3.698629292408834</v>
+        <v>3.529412696284791</v>
       </c>
       <c r="H591">
-        <v>162396709.1176951</v>
+        <v>147763109.885169</v>
       </c>
       <c r="I591">
-        <v>10.96</v>
+        <v>12.12</v>
       </c>
       <c r="J591">
-        <v>1442.182209734248</v>
+        <v>1420.481273646244</v>
       </c>
       <c r="K591" t="s">
         <v>98</v>
       </c>
       <c r="L591">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="M591">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="N591">
         <v>590</v>
       </c>
       <c r="O591">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P591">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q591">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:17">
       <c r="A592" s="1">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="B592">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="C592" t="s">
         <v>16</v>
       </c>
       <c r="D592" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E592" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F592" t="s">
         <v>90</v>
       </c>
       <c r="G592">
-        <v>3.006399619281768</v>
+        <v>3.698629292408834</v>
       </c>
       <c r="H592">
-        <v>158298350.6547795</v>
+        <v>162396709.1176951</v>
       </c>
       <c r="I592">
-        <v>12.78046152585622</v>
+        <v>10.96</v>
       </c>
       <c r="J592">
-        <v>1479.874948626485</v>
+        <v>1442.182209734248</v>
       </c>
       <c r="K592" t="s">
         <v>98</v>
       </c>
       <c r="L592">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="M592">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="N592">
         <v>591</v>
       </c>
       <c r="O592">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P592">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q592">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:17">
       <c r="A593" s="1">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="B593">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C593" t="s">
         <v>16</v>
@@ -32070,25 +32070,25 @@
         <v>90</v>
       </c>
       <c r="G593">
-        <v>3.075484926638344</v>
+        <v>3.006399619281768</v>
       </c>
       <c r="H593">
-        <v>171360939.7972732</v>
+        <v>158298350.6547795</v>
       </c>
       <c r="I593">
-        <v>11.33</v>
+        <v>12.78046152585622</v>
       </c>
       <c r="J593">
-        <v>1633.470461112752</v>
+        <v>1479.874948626485</v>
       </c>
       <c r="K593" t="s">
         <v>98</v>
       </c>
       <c r="L593">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="M593">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="N593">
         <v>592</v>
@@ -32105,63 +32105,63 @@
     </row>
     <row r="594" spans="1:17">
       <c r="A594" s="1">
-        <v>271</v>
+        <v>177</v>
       </c>
       <c r="B594">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="C594" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D594" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E594" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F594" t="s">
         <v>90</v>
       </c>
       <c r="G594">
-        <v>2.800124219110258</v>
+        <v>3.075484926638344</v>
       </c>
       <c r="H594">
-        <v>260869767.3073402</v>
+        <v>171360939.7972732</v>
       </c>
       <c r="I594">
-        <v>13.52</v>
+        <v>11.33</v>
       </c>
       <c r="J594">
-        <v>1661.178613694678</v>
+        <v>1633.470461112752</v>
       </c>
       <c r="K594" t="s">
         <v>98</v>
       </c>
       <c r="L594">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="M594">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="N594">
         <v>593</v>
       </c>
       <c r="O594">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P594">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q594">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="595" spans="1:17">
       <c r="A595" s="1">
-        <v>205</v>
+        <v>271</v>
       </c>
       <c r="B595">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="C595" t="s">
         <v>17</v>
@@ -32176,25 +32176,25 @@
         <v>90</v>
       </c>
       <c r="G595">
-        <v>4.244738923660966</v>
+        <v>2.800124219110258</v>
       </c>
       <c r="H595">
-        <v>166087168.1401453</v>
+        <v>260869767.3073402</v>
       </c>
       <c r="I595">
-        <v>12.92</v>
+        <v>13.52</v>
       </c>
       <c r="J595">
-        <v>1662.792032436632</v>
+        <v>1661.178613694678</v>
       </c>
       <c r="K595" t="s">
         <v>98</v>
       </c>
       <c r="L595">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="M595">
-        <v>612</v>
+        <v>583</v>
       </c>
       <c r="N595">
         <v>594</v>
@@ -32211,7 +32211,7 @@
     </row>
     <row r="596" spans="1:17">
       <c r="A596" s="1">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="B596">
         <v>2001</v>
@@ -32220,54 +32220,54 @@
         <v>17</v>
       </c>
       <c r="D596" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E596" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F596" t="s">
         <v>90</v>
       </c>
       <c r="G596">
-        <v>4.217976999785748</v>
+        <v>4.244738923660966</v>
       </c>
       <c r="H596">
-        <v>155792542.0805141</v>
+        <v>166087168.1401453</v>
       </c>
       <c r="I596">
-        <v>14.36</v>
+        <v>12.92</v>
       </c>
       <c r="J596">
-        <v>1786.724581435786</v>
+        <v>1662.792032436632</v>
       </c>
       <c r="K596" t="s">
         <v>98</v>
       </c>
       <c r="L596">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="M596">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="N596">
         <v>595</v>
       </c>
       <c r="O596">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P596">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q596">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:17">
       <c r="A597" s="1">
-        <v>284</v>
+        <v>218</v>
       </c>
       <c r="B597">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="C597" t="s">
         <v>17</v>
@@ -32282,25 +32282,25 @@
         <v>90</v>
       </c>
       <c r="G597">
-        <v>3.057117258629343</v>
+        <v>4.217976999785748</v>
       </c>
       <c r="H597">
-        <v>218890999.3422388</v>
+        <v>155792542.0805141</v>
       </c>
       <c r="I597">
-        <v>13.69</v>
+        <v>14.36</v>
       </c>
       <c r="J597">
-        <v>1800.818717307565</v>
+        <v>1786.724581435786</v>
       </c>
       <c r="K597" t="s">
         <v>98</v>
       </c>
       <c r="L597">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="M597">
-        <v>589</v>
+        <v>611</v>
       </c>
       <c r="N597">
         <v>596</v>
@@ -32317,166 +32317,166 @@
     </row>
     <row r="598" spans="1:17">
       <c r="A598" s="1">
-        <v>238</v>
+        <v>284</v>
       </c>
       <c r="B598">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C598" t="s">
         <v>17</v>
       </c>
       <c r="D598" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E598" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F598" t="s">
         <v>90</v>
       </c>
       <c r="G598">
-        <v>4.456923512878452</v>
+        <v>3.057117258629343</v>
       </c>
       <c r="H598">
-        <v>175452471.271027</v>
+        <v>218890999.3422388</v>
       </c>
       <c r="I598">
-        <v>15.05</v>
+        <v>13.69</v>
       </c>
       <c r="J598">
-        <v>1810.576982498511</v>
+        <v>1800.818717307565</v>
       </c>
       <c r="K598" t="s">
         <v>98</v>
       </c>
       <c r="L598">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="M598">
-        <v>614</v>
+        <v>589</v>
       </c>
       <c r="N598">
         <v>597</v>
       </c>
       <c r="O598">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P598">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q598">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:17">
       <c r="A599" s="1">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="B599">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C599" t="s">
         <v>17</v>
       </c>
       <c r="D599" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E599" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F599" t="s">
         <v>90</v>
       </c>
       <c r="G599">
-        <v>3.47153864687831</v>
+        <v>4.456923512878452</v>
       </c>
       <c r="H599">
-        <v>179499744.7871334</v>
+        <v>175452471.271027</v>
       </c>
       <c r="I599">
-        <v>13.34</v>
+        <v>15.05</v>
       </c>
       <c r="J599">
-        <v>1922.956511553731</v>
+        <v>1810.576982498511</v>
       </c>
       <c r="K599" t="s">
         <v>98</v>
       </c>
       <c r="L599">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="M599">
-        <v>593</v>
+        <v>614</v>
       </c>
       <c r="N599">
         <v>598</v>
       </c>
       <c r="O599">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P599">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q599">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:17">
       <c r="A600" s="1">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="B600">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C600" t="s">
         <v>17</v>
       </c>
       <c r="D600" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E600" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F600" t="s">
         <v>90</v>
       </c>
       <c r="G600">
-        <v>4.568590500629657</v>
+        <v>3.47153864687831</v>
       </c>
       <c r="H600">
-        <v>161086010.9878837</v>
+        <v>179499744.7871334</v>
       </c>
       <c r="I600">
-        <v>15.07</v>
+        <v>13.34</v>
       </c>
       <c r="J600">
-        <v>1990.955000715891</v>
+        <v>1922.956511553731</v>
       </c>
       <c r="K600" t="s">
         <v>98</v>
       </c>
       <c r="L600">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="M600">
-        <v>615</v>
+        <v>593</v>
       </c>
       <c r="N600">
         <v>599</v>
       </c>
       <c r="O600">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P600">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q600">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="601" spans="1:17">
       <c r="A601" s="1">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="B601">
         <v>2002</v>
@@ -32485,107 +32485,107 @@
         <v>17</v>
       </c>
       <c r="D601" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E601" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F601" t="s">
         <v>90</v>
       </c>
       <c r="G601">
-        <v>3.660388473217305</v>
+        <v>4.568590500629657</v>
       </c>
       <c r="H601">
-        <v>181970896.4041982</v>
+        <v>161086010.9878837</v>
       </c>
       <c r="I601">
-        <v>13.89</v>
+        <v>15.07</v>
       </c>
       <c r="J601">
-        <v>2044.368788867682</v>
+        <v>1990.955000715891</v>
       </c>
       <c r="K601" t="s">
         <v>98</v>
       </c>
       <c r="L601">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="M601">
-        <v>598</v>
+        <v>615</v>
       </c>
       <c r="N601">
         <v>600</v>
       </c>
       <c r="O601">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P601">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q601">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:17">
       <c r="A602" s="1">
-        <v>304</v>
+        <v>243</v>
       </c>
       <c r="B602">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="C602" t="s">
         <v>17</v>
       </c>
       <c r="D602" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E602" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F602" t="s">
         <v>90</v>
       </c>
       <c r="G602">
-        <v>3.675438650706758</v>
+        <v>3.660388473217305</v>
       </c>
       <c r="H602">
-        <v>260339249.6569176</v>
+        <v>181970896.4041982</v>
       </c>
       <c r="I602">
-        <v>17.22</v>
+        <v>13.89</v>
       </c>
       <c r="J602">
-        <v>2137.477989928811</v>
+        <v>2044.368788867682</v>
       </c>
       <c r="K602" t="s">
         <v>98</v>
       </c>
       <c r="L602">
-        <v>616</v>
+        <v>598</v>
       </c>
       <c r="M602">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="N602">
         <v>601</v>
       </c>
       <c r="O602">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P602">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q602">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="603" spans="1:17">
       <c r="A603" s="1">
-        <v>370</v>
+        <v>304</v>
       </c>
       <c r="B603">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="C603" t="s">
         <v>17</v>
@@ -32600,25 +32600,25 @@
         <v>90</v>
       </c>
       <c r="G603">
-        <v>3.545943951125945</v>
+        <v>3.675438650706758</v>
       </c>
       <c r="H603">
-        <v>286461209.9342212</v>
+        <v>260339249.6569176</v>
       </c>
       <c r="I603">
-        <v>14.99</v>
+        <v>17.22</v>
       </c>
       <c r="J603">
-        <v>2200.464564321568</v>
+        <v>2137.477989928811</v>
       </c>
       <c r="K603" t="s">
         <v>98</v>
       </c>
       <c r="L603">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="M603">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="N603">
         <v>602</v>
@@ -32635,10 +32635,10 @@
     </row>
     <row r="604" spans="1:17">
       <c r="A604" s="1">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="B604">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C604" t="s">
         <v>17</v>
@@ -32653,25 +32653,25 @@
         <v>90</v>
       </c>
       <c r="G604">
-        <v>3.745613653639326</v>
+        <v>3.545943951125945</v>
       </c>
       <c r="H604">
-        <v>268775865.3780246</v>
+        <v>286461209.9342212</v>
       </c>
       <c r="I604">
-        <v>16.72</v>
+        <v>14.99</v>
       </c>
       <c r="J604">
-        <v>2213.07095489645</v>
+        <v>2200.464564321568</v>
       </c>
       <c r="K604" t="s">
         <v>98</v>
       </c>
       <c r="L604">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="M604">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="N604">
         <v>603</v>
@@ -32688,113 +32688,113 @@
     </row>
     <row r="605" spans="1:17">
       <c r="A605" s="1">
-        <v>276</v>
+        <v>337</v>
       </c>
       <c r="B605">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="C605" t="s">
         <v>17</v>
       </c>
       <c r="D605" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E605" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F605" t="s">
         <v>90</v>
       </c>
       <c r="G605">
-        <v>3.664324876330928</v>
+        <v>3.745613653639326</v>
       </c>
       <c r="H605">
-        <v>201318312.8902572</v>
+        <v>268775865.3780246</v>
       </c>
       <c r="I605">
-        <v>15.29</v>
+        <v>16.72</v>
       </c>
       <c r="J605">
-        <v>2251.411237391588</v>
+        <v>2213.07095489645</v>
       </c>
       <c r="K605" t="s">
         <v>98</v>
       </c>
       <c r="L605">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="M605">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="N605">
         <v>604</v>
       </c>
       <c r="O605">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P605">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q605">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:17">
       <c r="A606" s="1">
-        <v>317</v>
+        <v>276</v>
       </c>
       <c r="B606">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C606" t="s">
         <v>17</v>
       </c>
       <c r="D606" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E606" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F606" t="s">
         <v>90</v>
       </c>
       <c r="G606">
-        <v>3.596528534665699</v>
+        <v>3.664324876330928</v>
       </c>
       <c r="H606">
-        <v>236882791.3291787</v>
+        <v>201318312.8902572</v>
       </c>
       <c r="I606">
-        <v>18</v>
+        <v>15.29</v>
       </c>
       <c r="J606">
-        <v>2278.646422866531</v>
+        <v>2251.411237391588</v>
       </c>
       <c r="K606" t="s">
         <v>98</v>
       </c>
       <c r="L606">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="M606">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="N606">
         <v>605</v>
       </c>
       <c r="O606">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P606">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q606">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="607" spans="1:17">
       <c r="A607" s="1">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B607">
         <v>2004</v>
@@ -32803,104 +32803,104 @@
         <v>17</v>
       </c>
       <c r="D607" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E607" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F607" t="s">
         <v>90</v>
       </c>
       <c r="G607">
-        <v>3.688952951783332</v>
+        <v>3.596528534665699</v>
       </c>
       <c r="H607">
-        <v>212673815.2732982</v>
+        <v>236882791.3291787</v>
       </c>
       <c r="I607">
-        <v>17.12</v>
+        <v>18</v>
       </c>
       <c r="J607">
-        <v>2383.574057255737</v>
+        <v>2278.646422866531</v>
       </c>
       <c r="K607" t="s">
         <v>98</v>
       </c>
       <c r="L607">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="M607">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="N607">
         <v>606</v>
       </c>
       <c r="O607">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P607">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q607">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:17">
       <c r="A608" s="1">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="B608">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C608" t="s">
         <v>17</v>
       </c>
       <c r="D608" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E608" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F608" t="s">
         <v>90</v>
       </c>
       <c r="G608">
-        <v>4.211933808057543</v>
+        <v>3.688952951783332</v>
       </c>
       <c r="H608">
-        <v>225438848.1893628</v>
+        <v>212673815.2732982</v>
       </c>
       <c r="I608">
-        <v>17.6</v>
+        <v>17.12</v>
       </c>
       <c r="J608">
-        <v>2532.383233211665</v>
+        <v>2383.574057255737</v>
       </c>
       <c r="K608" t="s">
         <v>98</v>
       </c>
       <c r="L608">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="M608">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="N608">
         <v>607</v>
       </c>
       <c r="O608">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P608">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q608">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="609" spans="1:17">
       <c r="A609" s="1">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="B609">
         <v>2005</v>
@@ -32909,157 +32909,157 @@
         <v>17</v>
       </c>
       <c r="D609" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E609" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F609" t="s">
         <v>90</v>
       </c>
       <c r="G609">
-        <v>3.84153035393547</v>
+        <v>4.211933808057543</v>
       </c>
       <c r="H609">
-        <v>219105882.2766292</v>
+        <v>225438848.1893628</v>
       </c>
       <c r="I609">
-        <v>15.19</v>
+        <v>17.6</v>
       </c>
       <c r="J609">
-        <v>2545.709962320196</v>
+        <v>2532.383233211665</v>
       </c>
       <c r="K609" t="s">
         <v>98</v>
       </c>
       <c r="L609">
-        <v>604</v>
+        <v>622</v>
       </c>
       <c r="M609">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="N609">
         <v>608</v>
       </c>
       <c r="O609">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P609">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q609">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:17">
       <c r="A610" s="1">
-        <v>403</v>
+        <v>342</v>
       </c>
       <c r="B610">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C610" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D610" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E610" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F610" t="s">
         <v>90</v>
       </c>
       <c r="G610">
-        <v>4.115609940317691</v>
+        <v>3.84153035393547</v>
       </c>
       <c r="H610">
-        <v>294263651.9595864</v>
+        <v>219105882.2766292</v>
       </c>
       <c r="I610">
-        <v>20.61</v>
+        <v>15.19</v>
       </c>
       <c r="J610">
-        <v>2583.345809892844</v>
+        <v>2545.709962320196</v>
       </c>
       <c r="K610" t="s">
         <v>98</v>
       </c>
       <c r="L610">
-        <v>642</v>
+        <v>604</v>
       </c>
       <c r="M610">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="N610">
         <v>609</v>
       </c>
       <c r="O610">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P610">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q610">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="611" spans="1:17">
       <c r="A611" s="1">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="B611">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C611" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D611" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E611" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F611" t="s">
         <v>90</v>
       </c>
       <c r="G611">
-        <v>3.956480762178007</v>
+        <v>4.115609940317691</v>
       </c>
       <c r="H611">
-        <v>224292687.6723781</v>
+        <v>294263651.9595864</v>
       </c>
       <c r="I611">
-        <v>15.49</v>
+        <v>20.61</v>
       </c>
       <c r="J611">
-        <v>2668.519309324456</v>
+        <v>2583.345809892844</v>
       </c>
       <c r="K611" t="s">
         <v>98</v>
       </c>
       <c r="L611">
-        <v>606</v>
+        <v>642</v>
       </c>
       <c r="M611">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="N611">
         <v>610</v>
       </c>
       <c r="O611">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P611">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q611">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:17">
       <c r="A612" s="1">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B612">
         <v>2006</v>
@@ -33068,157 +33068,157 @@
         <v>17</v>
       </c>
       <c r="D612" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E612" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F612" t="s">
         <v>90</v>
       </c>
       <c r="G612">
-        <v>3.830158871802823</v>
+        <v>3.956480762178007</v>
       </c>
       <c r="H612">
-        <v>262982754.4100457</v>
+        <v>224292687.6723781</v>
       </c>
       <c r="I612">
-        <v>16.86</v>
+        <v>15.49</v>
       </c>
       <c r="J612">
-        <v>2683.361798768535</v>
+        <v>2668.519309324456</v>
       </c>
       <c r="K612" t="s">
         <v>98</v>
       </c>
       <c r="L612">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="M612">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="N612">
         <v>611</v>
       </c>
       <c r="O612">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P612">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q612">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="613" spans="1:17">
       <c r="A613" s="1">
-        <v>436</v>
+        <v>383</v>
       </c>
       <c r="B613">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C613" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D613" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E613" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F613" t="s">
         <v>90</v>
       </c>
       <c r="G613">
-        <v>4.332918851275442</v>
+        <v>3.830158871802823</v>
       </c>
       <c r="H613">
-        <v>305571824.032473</v>
+        <v>262982754.4100457</v>
       </c>
       <c r="I613">
-        <v>17.33</v>
+        <v>16.86</v>
       </c>
       <c r="J613">
-        <v>2780.335413583261</v>
+        <v>2683.361798768535</v>
       </c>
       <c r="K613" t="s">
         <v>98</v>
       </c>
       <c r="L613">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="M613">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="N613">
         <v>612</v>
       </c>
       <c r="O613">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P613">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q613">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:17">
       <c r="A614" s="1">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="B614">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C614" t="s">
         <v>18</v>
       </c>
       <c r="D614" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E614" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F614" t="s">
         <v>90</v>
       </c>
       <c r="G614">
-        <v>4.105139550811622</v>
+        <v>4.332918851275442</v>
       </c>
       <c r="H614">
-        <v>257885706.5883435</v>
+        <v>305571824.032473</v>
       </c>
       <c r="I614">
-        <v>19.21</v>
+        <v>17.33</v>
       </c>
       <c r="J614">
-        <v>2805.446438077728</v>
+        <v>2780.335413583261</v>
       </c>
       <c r="K614" t="s">
         <v>98</v>
       </c>
       <c r="L614">
-        <v>632</v>
+        <v>617</v>
       </c>
       <c r="M614">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="N614">
         <v>613</v>
       </c>
       <c r="O614">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P614">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q614">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:17">
       <c r="A615" s="1">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="B615">
         <v>2007</v>
@@ -33227,107 +33227,107 @@
         <v>18</v>
       </c>
       <c r="D615" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E615" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F615" t="s">
         <v>90</v>
       </c>
       <c r="G615">
-        <v>4.032481916194429</v>
+        <v>4.105139550811622</v>
       </c>
       <c r="H615">
-        <v>235924314.1809207</v>
+        <v>257885706.5883435</v>
       </c>
       <c r="I615">
-        <v>16.38</v>
+        <v>19.21</v>
       </c>
       <c r="J615">
-        <v>2840.012259492002</v>
+        <v>2805.446438077728</v>
       </c>
       <c r="K615" t="s">
         <v>98</v>
       </c>
       <c r="L615">
+        <v>632</v>
+      </c>
+      <c r="M615">
         <v>608</v>
-      </c>
-      <c r="M615">
-        <v>607</v>
       </c>
       <c r="N615">
         <v>614</v>
       </c>
       <c r="O615">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P615">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q615">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:17">
       <c r="A616" s="1">
-        <v>469</v>
+        <v>408</v>
       </c>
       <c r="B616">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C616" t="s">
         <v>18</v>
       </c>
       <c r="D616" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E616" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F616" t="s">
         <v>90</v>
       </c>
       <c r="G616">
-        <v>4.837039814245177</v>
+        <v>4.032481916194429</v>
       </c>
       <c r="H616">
-        <v>293095823.1496418</v>
+        <v>235924314.1809207</v>
       </c>
       <c r="I616">
-        <v>14.37</v>
+        <v>16.38</v>
       </c>
       <c r="J616">
-        <v>2931.384863204366</v>
+        <v>2840.012259492002</v>
       </c>
       <c r="K616" t="s">
         <v>98</v>
       </c>
       <c r="L616">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="M616">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="N616">
         <v>615</v>
       </c>
       <c r="O616">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P616">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q616">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="617" spans="1:17">
       <c r="A617" s="1">
-        <v>502</v>
+        <v>469</v>
       </c>
       <c r="B617">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C617" t="s">
         <v>18</v>
@@ -33342,25 +33342,25 @@
         <v>90</v>
       </c>
       <c r="G617">
-        <v>4.897155423893765</v>
+        <v>4.837039814245177</v>
       </c>
       <c r="H617">
-        <v>310139747.7267052</v>
+        <v>293095823.1496418</v>
       </c>
       <c r="I617">
-        <v>15.78</v>
+        <v>14.37</v>
       </c>
       <c r="J617">
-        <v>3097.218865740026</v>
+        <v>2931.384863204366</v>
       </c>
       <c r="K617" t="s">
         <v>98</v>
       </c>
       <c r="L617">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="M617">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N617">
         <v>616</v>
@@ -33377,60 +33377,60 @@
     </row>
     <row r="618" spans="1:17">
       <c r="A618" s="1">
-        <v>474</v>
+        <v>502</v>
       </c>
       <c r="B618">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C618" t="s">
         <v>18</v>
       </c>
       <c r="D618" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E618" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F618" t="s">
         <v>90</v>
       </c>
       <c r="G618">
-        <v>4.743511492219538</v>
+        <v>4.897155423893765</v>
       </c>
       <c r="H618">
-        <v>230363725.2932448</v>
+        <v>310139747.7267052</v>
       </c>
       <c r="I618">
-        <v>17.16</v>
+        <v>15.78</v>
       </c>
       <c r="J618">
-        <v>3199.60991030116</v>
+        <v>3097.218865740026</v>
       </c>
       <c r="K618" t="s">
         <v>98</v>
       </c>
       <c r="L618">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="M618">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="N618">
         <v>617</v>
       </c>
       <c r="O618">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P618">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q618">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:17">
       <c r="A619" s="1">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="B619">
         <v>2009</v>
@@ -33439,163 +33439,163 @@
         <v>18</v>
       </c>
       <c r="D619" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E619" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F619" t="s">
         <v>90</v>
       </c>
       <c r="G619">
-        <v>4.936438837240612</v>
+        <v>4.743511492219538</v>
       </c>
       <c r="H619">
-        <v>256399449.9945256</v>
+        <v>230363725.2932448</v>
       </c>
       <c r="I619">
-        <v>17.03</v>
+        <v>17.16</v>
       </c>
       <c r="J619">
-        <v>3297.526929200672</v>
+        <v>3199.60991030116</v>
       </c>
       <c r="K619" t="s">
         <v>98</v>
       </c>
       <c r="L619">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="M619">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="N619">
         <v>618</v>
       </c>
       <c r="O619">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P619">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q619">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="620" spans="1:17">
       <c r="A620" s="1">
-        <v>441</v>
+        <v>482</v>
       </c>
       <c r="B620">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C620" t="s">
         <v>18</v>
       </c>
       <c r="D620" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E620" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F620" t="s">
         <v>90</v>
       </c>
       <c r="G620">
-        <v>4.788414783842138</v>
+        <v>4.936438837240612</v>
       </c>
       <c r="H620">
-        <v>234224998.5993003</v>
+        <v>256399449.9945256</v>
       </c>
       <c r="I620">
-        <v>17.02</v>
+        <v>17.03</v>
       </c>
       <c r="J620">
-        <v>3317.321913442863</v>
+        <v>3297.526929200672</v>
       </c>
       <c r="K620" t="s">
         <v>98</v>
       </c>
       <c r="L620">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="M620">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="N620">
         <v>619</v>
       </c>
       <c r="O620">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P620">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q620">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:17">
       <c r="A621" s="1">
-        <v>733</v>
+        <v>441</v>
       </c>
       <c r="B621">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="C621" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D621" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E621" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F621" t="s">
         <v>90</v>
       </c>
       <c r="G621">
-        <v>5.487927545243357</v>
+        <v>4.788414783842138</v>
       </c>
       <c r="H621">
-        <v>332091614</v>
+        <v>234224998.5993003</v>
       </c>
       <c r="I621">
-        <v>19.37144775414854</v>
+        <v>17.02</v>
       </c>
       <c r="J621">
-        <v>3386.225585920775</v>
+        <v>3317.321913442863</v>
       </c>
       <c r="K621" t="s">
         <v>98</v>
       </c>
       <c r="L621">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="M621">
-        <v>641</v>
+        <v>617</v>
       </c>
       <c r="N621">
         <v>620</v>
       </c>
       <c r="O621">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P621">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q621">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="622" spans="1:17">
       <c r="A622" s="1">
-        <v>535</v>
+        <v>733</v>
       </c>
       <c r="B622">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="C622" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D622" t="s">
         <v>46</v>
@@ -33607,25 +33607,25 @@
         <v>90</v>
       </c>
       <c r="G622">
-        <v>5.198821568577318</v>
+        <v>5.487927545243357</v>
       </c>
       <c r="H622">
-        <v>325345028.5079675</v>
+        <v>332091614</v>
       </c>
       <c r="I622">
-        <v>17.42</v>
+        <v>19.37144775414854</v>
       </c>
       <c r="J622">
-        <v>3395.977148842416</v>
+        <v>3386.225585920775</v>
       </c>
       <c r="K622" t="s">
         <v>98</v>
       </c>
       <c r="L622">
-        <v>618</v>
+        <v>635</v>
       </c>
       <c r="M622">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="N622">
         <v>621</v>
@@ -33642,13 +33642,13 @@
     </row>
     <row r="623" spans="1:17">
       <c r="A623" s="1">
-        <v>634</v>
+        <v>535</v>
       </c>
       <c r="B623">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="C623" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D623" t="s">
         <v>46</v>
@@ -33660,25 +33660,25 @@
         <v>90</v>
       </c>
       <c r="G623">
-        <v>5.269298367933393</v>
+        <v>5.198821568577318</v>
       </c>
       <c r="H623">
-        <v>334615562.7563036</v>
+        <v>325345028.5079675</v>
       </c>
       <c r="I623">
-        <v>17.63860114840451</v>
+        <v>17.42</v>
       </c>
       <c r="J623">
-        <v>3399.527161132448</v>
+        <v>3395.977148842416</v>
       </c>
       <c r="K623" t="s">
         <v>98</v>
       </c>
       <c r="L623">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="M623">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="N623">
         <v>622</v>
@@ -33695,10 +33695,10 @@
     </row>
     <row r="624" spans="1:17">
       <c r="A624" s="1">
-        <v>700</v>
+        <v>634</v>
       </c>
       <c r="B624">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C624" t="s">
         <v>19</v>
@@ -33713,25 +33713,25 @@
         <v>90</v>
       </c>
       <c r="G624">
-        <v>5.326774011539438</v>
+        <v>5.269298367933393</v>
       </c>
       <c r="H624">
-        <v>340050766.0781</v>
+        <v>334615562.7563036</v>
       </c>
       <c r="I624">
-        <v>18.1413912553016</v>
+        <v>17.63860114840451</v>
       </c>
       <c r="J624">
-        <v>3406.143677930823</v>
+        <v>3399.527161132448</v>
       </c>
       <c r="K624" t="s">
         <v>98</v>
       </c>
       <c r="L624">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="M624">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="N624">
         <v>623</v>
@@ -33748,60 +33748,60 @@
     </row>
     <row r="625" spans="1:17">
       <c r="A625" s="1">
-        <v>515</v>
+        <v>700</v>
       </c>
       <c r="B625">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="C625" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D625" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E625" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F625" t="s">
         <v>90</v>
       </c>
       <c r="G625">
-        <v>4.907482485310705</v>
+        <v>5.326774011539438</v>
       </c>
       <c r="H625">
-        <v>269253633.2564325</v>
+        <v>340050766.0781</v>
       </c>
       <c r="I625">
-        <v>17.44</v>
+        <v>18.1413912553016</v>
       </c>
       <c r="J625">
-        <v>3416.025755711192</v>
+        <v>3406.143677930823</v>
       </c>
       <c r="K625" t="s">
         <v>98</v>
       </c>
       <c r="L625">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="M625">
-        <v>620</v>
+        <v>636</v>
       </c>
       <c r="N625">
         <v>624</v>
       </c>
       <c r="O625">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P625">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q625">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:17">
       <c r="A626" s="1">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="B626">
         <v>2010</v>
@@ -33810,107 +33810,107 @@
         <v>18</v>
       </c>
       <c r="D626" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E626" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F626" t="s">
         <v>90</v>
       </c>
       <c r="G626">
-        <v>4.917788202181055</v>
+        <v>4.907482485310705</v>
       </c>
       <c r="H626">
-        <v>240337194.5252993</v>
+        <v>269253633.2564325</v>
       </c>
       <c r="I626">
-        <v>19.09</v>
+        <v>17.44</v>
       </c>
       <c r="J626">
-        <v>3431.577940376884</v>
+        <v>3416.025755711192</v>
       </c>
       <c r="K626" t="s">
         <v>98</v>
       </c>
       <c r="L626">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="M626">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="N626">
         <v>625</v>
       </c>
       <c r="O626">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P626">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q626">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:17">
       <c r="A627" s="1">
-        <v>667</v>
+        <v>507</v>
       </c>
       <c r="B627">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="C627" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D627" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E627" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F627" t="s">
         <v>90</v>
       </c>
       <c r="G627">
-        <v>5.546580211196764</v>
+        <v>4.917788202181055</v>
       </c>
       <c r="H627">
-        <v>331948903.7467296</v>
+        <v>240337194.5252993</v>
       </c>
       <c r="I627">
-        <v>17.48332749996804</v>
+        <v>19.09</v>
       </c>
       <c r="J627">
-        <v>3505.137101506675</v>
+        <v>3431.577940376884</v>
       </c>
       <c r="K627" t="s">
         <v>98</v>
       </c>
       <c r="L627">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="M627">
-        <v>642</v>
+        <v>621</v>
       </c>
       <c r="N627">
         <v>626</v>
       </c>
       <c r="O627">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P627">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q627">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="628" spans="1:17">
       <c r="A628" s="1">
-        <v>601</v>
+        <v>667</v>
       </c>
       <c r="B628">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="C628" t="s">
         <v>19</v>
@@ -33925,25 +33925,25 @@
         <v>90</v>
       </c>
       <c r="G628">
-        <v>5.764012755804993</v>
+        <v>5.546580211196764</v>
       </c>
       <c r="H628">
-        <v>324049878.8417544</v>
+        <v>331948903.7467296</v>
       </c>
       <c r="I628">
-        <v>19.77206337900904</v>
+        <v>17.48332749996804</v>
       </c>
       <c r="J628">
-        <v>3648.680932956106</v>
+        <v>3505.137101506675</v>
       </c>
       <c r="K628" t="s">
         <v>98</v>
       </c>
       <c r="L628">
-        <v>639</v>
+        <v>620</v>
       </c>
       <c r="M628">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="N628">
         <v>627</v>
@@ -33960,60 +33960,60 @@
     </row>
     <row r="629" spans="1:17">
       <c r="A629" s="1">
-        <v>540</v>
+        <v>601</v>
       </c>
       <c r="B629">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="C629" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D629" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E629" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F629" t="s">
         <v>90</v>
       </c>
       <c r="G629">
-        <v>5.16727631147572</v>
+        <v>5.764012755804993</v>
       </c>
       <c r="H629">
-        <v>246112318.8269361</v>
+        <v>324049878.8417544</v>
       </c>
       <c r="I629">
-        <v>19.48</v>
+        <v>19.77206337900904</v>
       </c>
       <c r="J629">
-        <v>3661.281264840562</v>
+        <v>3648.680932956106</v>
       </c>
       <c r="K629" t="s">
         <v>98</v>
       </c>
       <c r="L629">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="M629">
-        <v>627</v>
+        <v>644</v>
       </c>
       <c r="N629">
         <v>628</v>
       </c>
       <c r="O629">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P629">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q629">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:17">
       <c r="A630" s="1">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="B630">
         <v>2011</v>
@@ -34022,54 +34022,54 @@
         <v>18</v>
       </c>
       <c r="D630" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E630" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F630" t="s">
         <v>90</v>
       </c>
       <c r="G630">
-        <v>5.080783771629044</v>
+        <v>5.16727631147572</v>
       </c>
       <c r="H630">
-        <v>281340447.4488613</v>
+        <v>246112318.8269361</v>
       </c>
       <c r="I630">
-        <v>19.58</v>
+        <v>19.48</v>
       </c>
       <c r="J630">
-        <v>3663.877292755896</v>
+        <v>3661.281264840562</v>
       </c>
       <c r="K630" t="s">
         <v>98</v>
       </c>
       <c r="L630">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="M630">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="N630">
         <v>629</v>
       </c>
       <c r="O630">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P630">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q630">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="631" spans="1:17">
       <c r="A631" s="1">
-        <v>449</v>
+        <v>548</v>
       </c>
       <c r="B631">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="C631" t="s">
         <v>18</v>
@@ -34084,25 +34084,25 @@
         <v>90</v>
       </c>
       <c r="G631">
-        <v>5.228797398342287</v>
+        <v>5.080783771629044</v>
       </c>
       <c r="H631">
-        <v>268502360.7547342</v>
+        <v>281340447.4488613</v>
       </c>
       <c r="I631">
-        <v>19.96</v>
+        <v>19.58</v>
       </c>
       <c r="J631">
-        <v>3690.623115027897</v>
+        <v>3663.877292755896</v>
       </c>
       <c r="K631" t="s">
         <v>98</v>
       </c>
       <c r="L631">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="M631">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="N631">
         <v>630</v>
@@ -34119,13 +34119,13 @@
     </row>
     <row r="632" spans="1:17">
       <c r="A632" s="1">
-        <v>614</v>
+        <v>449</v>
       </c>
       <c r="B632">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="C632" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D632" t="s">
         <v>45</v>
@@ -34137,25 +34137,25 @@
         <v>90</v>
       </c>
       <c r="G632">
-        <v>5.182478548768656</v>
+        <v>5.228797398342287</v>
       </c>
       <c r="H632">
-        <v>283204930.0046958</v>
+        <v>268502360.7547342</v>
       </c>
       <c r="I632">
-        <v>19.22281630639722</v>
+        <v>19.96</v>
       </c>
       <c r="J632">
-        <v>3707.218752185028</v>
+        <v>3690.623115027897</v>
       </c>
       <c r="K632" t="s">
         <v>98</v>
       </c>
       <c r="L632">
+        <v>640</v>
+      </c>
+      <c r="M632">
         <v>633</v>
-      </c>
-      <c r="M632">
-        <v>629</v>
       </c>
       <c r="N632">
         <v>631</v>
@@ -34172,60 +34172,60 @@
     </row>
     <row r="633" spans="1:17">
       <c r="A633" s="1">
-        <v>568</v>
+        <v>614</v>
       </c>
       <c r="B633">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C633" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D633" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E633" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F633" t="s">
         <v>90</v>
       </c>
       <c r="G633">
-        <v>5.572232095317919</v>
+        <v>5.182478548768656</v>
       </c>
       <c r="H633">
-        <v>337838939.441165</v>
+        <v>283204930.0046958</v>
       </c>
       <c r="I633">
-        <v>20.7</v>
+        <v>19.22281630639722</v>
       </c>
       <c r="J633">
-        <v>3727.33928818866</v>
+        <v>3707.218752185028</v>
       </c>
       <c r="K633" t="s">
         <v>98</v>
       </c>
       <c r="L633">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="M633">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="N633">
         <v>632</v>
       </c>
       <c r="O633">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P633">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q633">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:17">
       <c r="A634" s="1">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="B634">
         <v>2012</v>
@@ -34234,110 +34234,110 @@
         <v>18</v>
       </c>
       <c r="D634" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E634" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F634" t="s">
         <v>90</v>
       </c>
       <c r="G634">
-        <v>5.166419476794829</v>
+        <v>5.572232095317919</v>
       </c>
       <c r="H634">
-        <v>254691812.8626538</v>
+        <v>337838939.441165</v>
       </c>
       <c r="I634">
-        <v>20.43</v>
+        <v>20.7</v>
       </c>
       <c r="J634">
-        <v>3760.080273338712</v>
+        <v>3727.33928818866</v>
       </c>
       <c r="K634" t="s">
         <v>98</v>
       </c>
       <c r="L634">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="M634">
-        <v>626</v>
+        <v>643</v>
       </c>
       <c r="N634">
         <v>633</v>
       </c>
       <c r="O634">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P634">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q634">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:17">
       <c r="A635" s="1">
-        <v>647</v>
+        <v>573</v>
       </c>
       <c r="B635">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C635" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D635" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E635" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F635" t="s">
         <v>90</v>
       </c>
       <c r="G635">
-        <v>5.102303712319987</v>
+        <v>5.166419476794829</v>
       </c>
       <c r="H635">
-        <v>293959540.1882123</v>
+        <v>254691812.8626538</v>
       </c>
       <c r="I635">
-        <v>17.86358949820812</v>
+        <v>20.43</v>
       </c>
       <c r="J635">
-        <v>3762.652640566473</v>
+        <v>3760.080273338712</v>
       </c>
       <c r="K635" t="s">
         <v>98</v>
       </c>
       <c r="L635">
-        <v>624</v>
+        <v>641</v>
       </c>
       <c r="M635">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="N635">
         <v>634</v>
       </c>
       <c r="O635">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P635">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q635">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="636" spans="1:17">
       <c r="A636" s="1">
-        <v>581</v>
+        <v>647</v>
       </c>
       <c r="B636">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="C636" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D636" t="s">
         <v>45</v>
@@ -34349,25 +34349,25 @@
         <v>90</v>
       </c>
       <c r="G636">
-        <v>4.97768792589036</v>
+        <v>5.102303712319987</v>
       </c>
       <c r="H636">
-        <v>298427126.0811183</v>
+        <v>293959540.1882123</v>
       </c>
       <c r="I636">
-        <v>20.86</v>
+        <v>17.86358949820812</v>
       </c>
       <c r="J636">
-        <v>3779.041261442094</v>
+        <v>3762.652640566473</v>
       </c>
       <c r="K636" t="s">
         <v>98</v>
       </c>
       <c r="L636">
-        <v>644</v>
+        <v>624</v>
       </c>
       <c r="M636">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="N636">
         <v>635</v>
@@ -34384,116 +34384,116 @@
     </row>
     <row r="637" spans="1:17">
       <c r="A637" s="1">
-        <v>606</v>
+        <v>581</v>
       </c>
       <c r="B637">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C637" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D637" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E637" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F637" t="s">
         <v>90</v>
       </c>
       <c r="G637">
-        <v>5.368849987316473</v>
+        <v>4.97768792589036</v>
       </c>
       <c r="H637">
-        <v>252400931.2971187</v>
+        <v>298427126.0811183</v>
       </c>
       <c r="I637">
-        <v>19.1226169608564</v>
+        <v>20.86</v>
       </c>
       <c r="J637">
-        <v>3845.508920670719</v>
+        <v>3779.041261442094</v>
       </c>
       <c r="K637" t="s">
         <v>98</v>
       </c>
       <c r="L637">
-        <v>631</v>
+        <v>644</v>
       </c>
       <c r="M637">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="N637">
         <v>636</v>
       </c>
       <c r="O637">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P637">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q637">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638" spans="1:17">
       <c r="A638" s="1">
-        <v>746</v>
+        <v>606</v>
       </c>
       <c r="B638">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C638" t="s">
         <v>19</v>
       </c>
       <c r="D638" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E638" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F638" t="s">
         <v>90</v>
       </c>
       <c r="G638">
-        <v>5.191889637581846</v>
+        <v>5.368849987316473</v>
       </c>
       <c r="H638">
-        <v>305450056</v>
+        <v>252400931.2971187</v>
       </c>
       <c r="I638">
-        <v>19.48567588382818</v>
+        <v>19.1226169608564</v>
       </c>
       <c r="J638">
-        <v>3904.626743649434</v>
+        <v>3845.508920670719</v>
       </c>
       <c r="K638" t="s">
         <v>98</v>
       </c>
       <c r="L638">
+        <v>631</v>
+      </c>
+      <c r="M638">
         <v>637</v>
-      </c>
-      <c r="M638">
-        <v>630</v>
       </c>
       <c r="N638">
         <v>637</v>
       </c>
       <c r="O638">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P638">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q638">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="639" spans="1:17">
       <c r="A639" s="1">
-        <v>713</v>
+        <v>746</v>
       </c>
       <c r="B639">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C639" t="s">
         <v>19</v>
@@ -34508,25 +34508,25 @@
         <v>90</v>
       </c>
       <c r="G639">
-        <v>5.407809705429806</v>
+        <v>5.191889637581846</v>
       </c>
       <c r="H639">
-        <v>294604232.9816</v>
+        <v>305450056</v>
       </c>
       <c r="I639">
-        <v>18.07367864829142</v>
+        <v>19.48567588382818</v>
       </c>
       <c r="J639">
-        <v>3946.055873628713</v>
+        <v>3904.626743649434</v>
       </c>
       <c r="K639" t="s">
         <v>98</v>
       </c>
       <c r="L639">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="M639">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="N639">
         <v>638</v>
@@ -34543,63 +34543,63 @@
     </row>
     <row r="640" spans="1:17">
       <c r="A640" s="1">
-        <v>639</v>
+        <v>713</v>
       </c>
       <c r="B640">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="C640" t="s">
         <v>19</v>
       </c>
       <c r="D640" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E640" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F640" t="s">
         <v>90</v>
       </c>
       <c r="G640">
-        <v>5.411337775627277</v>
+        <v>5.407809705429806</v>
       </c>
       <c r="H640">
-        <v>261550822.2555144</v>
+        <v>294604232.9816</v>
       </c>
       <c r="I640">
-        <v>16.53904203908957</v>
+        <v>18.07367864829142</v>
       </c>
       <c r="J640">
-        <v>3990.571105668101</v>
+        <v>3946.055873628713</v>
       </c>
       <c r="K640" t="s">
         <v>98</v>
       </c>
       <c r="L640">
-        <v>609</v>
+        <v>626</v>
       </c>
       <c r="M640">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="N640">
         <v>639</v>
       </c>
       <c r="O640">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P640">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q640">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:17">
       <c r="A641" s="1">
-        <v>672</v>
+        <v>639</v>
       </c>
       <c r="B641">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C641" t="s">
         <v>19</v>
@@ -34614,25 +34614,25 @@
         <v>90</v>
       </c>
       <c r="G641">
-        <v>5.289781560774297</v>
+        <v>5.411337775627277</v>
       </c>
       <c r="H641">
-        <v>271978848.9454781</v>
+        <v>261550822.2555144</v>
       </c>
       <c r="I641">
-        <v>18.693116412708</v>
+        <v>16.53904203908957</v>
       </c>
       <c r="J641">
-        <v>4032.098246613439</v>
+        <v>3990.571105668101</v>
       </c>
       <c r="K641" t="s">
         <v>98</v>
       </c>
       <c r="L641">
-        <v>628</v>
+        <v>609</v>
       </c>
       <c r="M641">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="N641">
         <v>640</v>
@@ -34649,10 +34649,10 @@
     </row>
     <row r="642" spans="1:17">
       <c r="A642" s="1">
-        <v>705</v>
+        <v>672</v>
       </c>
       <c r="B642">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C642" t="s">
         <v>19</v>
@@ -34667,25 +34667,25 @@
         <v>90</v>
       </c>
       <c r="G642">
-        <v>5.181626088978408</v>
+        <v>5.289781560774297</v>
       </c>
       <c r="H642">
-        <v>282206109.8177</v>
+        <v>271978848.9454781</v>
       </c>
       <c r="I642">
-        <v>18.93436052361498</v>
+        <v>18.693116412708</v>
       </c>
       <c r="J642">
-        <v>4075.202406463588</v>
+        <v>4032.098246613439</v>
       </c>
       <c r="K642" t="s">
         <v>98</v>
       </c>
       <c r="L642">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M642">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="N642">
         <v>641</v>
@@ -34702,10 +34702,10 @@
     </row>
     <row r="643" spans="1:17">
       <c r="A643" s="1">
-        <v>738</v>
+        <v>705</v>
       </c>
       <c r="B643">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C643" t="s">
         <v>19</v>
@@ -34720,25 +34720,25 @@
         <v>90</v>
       </c>
       <c r="G643">
-        <v>5.196336239771369</v>
+        <v>5.181626088978408</v>
       </c>
       <c r="H643">
-        <v>287625173</v>
+        <v>282206109.8177</v>
       </c>
       <c r="I643">
-        <v>17.56810210347179</v>
+        <v>18.93436052361498</v>
       </c>
       <c r="J643">
-        <v>4143.360408544026</v>
+        <v>4075.202406463588</v>
       </c>
       <c r="K643" t="s">
         <v>98</v>
       </c>
       <c r="L643">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="M643">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="N643">
         <v>642</v>
@@ -34755,108 +34755,108 @@
     </row>
     <row r="644" spans="1:17">
       <c r="A644" s="1">
-        <v>680</v>
+        <v>738</v>
       </c>
       <c r="B644">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="C644" t="s">
         <v>19</v>
       </c>
       <c r="D644" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E644" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F644" t="s">
         <v>90</v>
       </c>
       <c r="G644">
-        <v>5.414589740559593</v>
+        <v>5.196336239771369</v>
       </c>
       <c r="H644">
-        <v>312130050.391073</v>
+        <v>287625173</v>
       </c>
       <c r="I644">
-        <v>19.31479915359115</v>
+        <v>17.56810210347179</v>
       </c>
       <c r="J644">
-        <v>4212.193191676702</v>
+        <v>4143.360408544026</v>
       </c>
       <c r="K644" t="s">
         <v>98</v>
       </c>
       <c r="L644">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="M644">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="N644">
         <v>643</v>
       </c>
       <c r="O644">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P644">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q644">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="645" spans="1:17">
       <c r="A645" s="1">
-        <v>7</v>
+        <v>680</v>
       </c>
       <c r="B645">
-        <v>1995</v>
+        <v>2015</v>
       </c>
       <c r="C645" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D645" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E645" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F645" t="s">
         <v>90</v>
       </c>
       <c r="G645">
-        <v>3.08261182905269</v>
+        <v>5.414589740559593</v>
       </c>
       <c r="H645">
-        <v>128285308.1604958</v>
+        <v>312130050.391073</v>
       </c>
       <c r="I645">
-        <v>12.54254844328326</v>
+        <v>19.31479915359115</v>
       </c>
       <c r="J645">
-        <v>11059.6243171034</v>
+        <v>4212.193191676702</v>
       </c>
       <c r="K645" t="s">
         <v>98</v>
       </c>
       <c r="L645">
-        <v>589</v>
+        <v>634</v>
       </c>
       <c r="M645">
-        <v>591</v>
+        <v>640</v>
       </c>
       <c r="N645">
         <v>644</v>
       </c>
       <c r="O645">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P645">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q645">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:17">
